--- a/Deltares/Compute_Hermitic_polynomials/5th_order_timoshenko_polys.xlsx
+++ b/Deltares/Compute_Hermitic_polynomials/5th_order_timoshenko_polys.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="15240" windowHeight="8625"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="15240" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="L">Hoja1!$L$2</definedName>
-    <definedName name="phi">Hoja1!$L$1</definedName>
+    <definedName name="L">Hoja1!$J$2</definedName>
+    <definedName name="phi">Hoja1!$J$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>phi</t>
   </si>
@@ -56,6 +56,27 @@
   <si>
     <t>N3_bar</t>
   </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>theta1</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>theta2</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>theta3</t>
+  </si>
+  <si>
+    <t>v(xi)</t>
+  </si>
 </sst>
 </file>
 
@@ -65,7 +86,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +104,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -119,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -137,6 +164,7 @@
     <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,7 +222,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$D$5:$D$85</c:f>
+              <c:f>Hoja1!$B$5:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -446,7 +474,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$E$5:$E$85</c:f>
+              <c:f>Hoja1!$C$5:$C$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -724,7 +752,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$D$5:$D$85</c:f>
+              <c:f>Hoja1!$B$5:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -976,7 +1004,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$F$5:$F$85</c:f>
+              <c:f>Hoja1!$D$5:$D$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -1253,7 +1281,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$D$5:$D$85</c:f>
+              <c:f>Hoja1!$B$5:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -1505,252 +1533,252 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$G$5:$G$85</c:f>
+              <c:f>Hoja1!$E$5:$E$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.71813660205078089</c:v>
+                  <c:v>2.4378906249999943E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.47018378124999982</c:v>
+                  <c:v>9.5062500000000494E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.25279609814453075</c:v>
+                  <c:v>2.0844140625000063E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.2881999999999216E-2</c:v>
+                  <c:v>3.6100000000000021E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10240936279296953</c:v>
+                  <c:v>5.4931640625000111E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24570096875000069</c:v>
+                  <c:v>7.7006250000000054E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36940040576171951</c:v>
+                  <c:v>0.10200039062500021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4757120000000008</c:v>
+                  <c:v>0.12960000000000022</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56664859326171935</c:v>
+                  <c:v>0.15950039062500021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.64404296875000067</c:v>
+                  <c:v>0.19140625000000028</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.70955892529296927</c:v>
+                  <c:v>0.22503164062500031</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.76470200000000055</c:v>
+                  <c:v>0.26010000000000044</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.81082983935546926</c:v>
+                  <c:v>0.29634414062500042</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.84916221875000042</c:v>
+                  <c:v>0.33350625000000045</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.88079071044921919</c:v>
+                  <c:v>0.37133789062500056</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.90668800000000027</c:v>
+                  <c:v>0.40960000000000052</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.92771685107421908</c:v>
+                  <c:v>0.4480628906250006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94463871875000027</c:v>
+                  <c:v>0.48650625000000064</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.95812201123046892</c:v>
+                  <c:v>0.52471914062500069</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.96875000000000022</c:v>
+                  <c:v>0.56250000000000067</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97702837841796886</c:v>
+                  <c:v>0.59965664062500079</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.98339246875000008</c:v>
+                  <c:v>0.63600625000000066</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.98821407763671887</c:v>
+                  <c:v>0.67137539062500062</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99180800000000002</c:v>
+                  <c:v>0.70560000000000067</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99443817138671875</c:v>
+                  <c:v>0.73852539062500078</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99632346875</c:v>
+                  <c:v>0.77000625000000067</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99764315966796879</c:v>
+                  <c:v>0.79990664062500061</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99854200000000004</c:v>
+                  <c:v>0.82810000000000061</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99913497998046874</c:v>
+                  <c:v>0.85446914062500057</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.99951171875</c:v>
+                  <c:v>0.87890625000000067</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.99974050732421871</c:v>
+                  <c:v>0.90131289062500053</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.99987199999999998</c:v>
+                  <c:v>0.92160000000000042</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.99994255419921874</c:v>
+                  <c:v>0.93968789062500035</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.99997721875000001</c:v>
+                  <c:v>0.95550625000000045</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.99999237060546875</c:v>
+                  <c:v>0.96899414062500033</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.99999800000000005</c:v>
+                  <c:v>0.98010000000000019</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.99999964404296871</c:v>
+                  <c:v>0.98878164062500018</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.99999996874999997</c:v>
+                  <c:v>0.99500625000000009</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.9999999995117187</c:v>
+                  <c:v>0.99875039062500004</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.9999999995117187</c:v>
+                  <c:v>0.99875039062499993</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.99999996874999997</c:v>
+                  <c:v>0.99500624999999987</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.99999964404296871</c:v>
+                  <c:v>0.98878164062499985</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.99999800000000005</c:v>
+                  <c:v>0.98009999999999975</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.99999237060546875</c:v>
+                  <c:v>0.96899414062499967</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.99997721875000001</c:v>
+                  <c:v>0.95550624999999967</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.99994255419921874</c:v>
+                  <c:v>0.93968789062499958</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.99987199999999998</c:v>
+                  <c:v>0.92159999999999953</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.99974050732421871</c:v>
+                  <c:v>0.90131289062499953</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.99951171875</c:v>
+                  <c:v>0.87890624999999933</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.99913497998046874</c:v>
+                  <c:v>0.85446914062499935</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.99854199999999993</c:v>
+                  <c:v>0.82809999999999928</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.99764315966796868</c:v>
+                  <c:v>0.79990664062499928</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.99632346875</c:v>
+                  <c:v>0.77000624999999912</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.99443817138671864</c:v>
+                  <c:v>0.738525390624999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.99180799999999991</c:v>
+                  <c:v>0.70559999999999901</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.98821407763671865</c:v>
+                  <c:v>0.67137539062499896</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.98339246874999986</c:v>
+                  <c:v>0.63600624999999888</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.97702837841796852</c:v>
+                  <c:v>0.5996566406249989</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.96874999999999967</c:v>
+                  <c:v>0.56249999999999889</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.95812201123046836</c:v>
+                  <c:v>0.5247191406249988</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.9446387187499995</c:v>
+                  <c:v>0.48650624999999881</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.92771685107421809</c:v>
+                  <c:v>0.44806289062499871</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.90668799999999916</c:v>
+                  <c:v>0.40959999999999863</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.88079071044921775</c:v>
+                  <c:v>0.37133789062499867</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.84916221874999875</c:v>
+                  <c:v>0.33350624999999862</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.81082983935546715</c:v>
+                  <c:v>0.29634414062499859</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.76470199999999811</c:v>
+                  <c:v>0.26009999999999867</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.70955892529296638</c:v>
+                  <c:v>0.22503164062499864</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.644042968749997</c:v>
+                  <c:v>0.19140624999999867</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.56664859326171513</c:v>
+                  <c:v>0.15950039062499871</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.47571199999999592</c:v>
+                  <c:v>0.12959999999999877</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.36940040576171373</c:v>
+                  <c:v>0.10200039062499883</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.24570096874999436</c:v>
+                  <c:v>7.7006249999998944E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.10240936279296164</c:v>
+                  <c:v>5.4931640624999112E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-6.2882000000008098E-2</c:v>
+                  <c:v>3.6099999999999244E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.25279609814454096</c:v>
+                  <c:v>2.0844140624999397E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.4701837812500107</c:v>
+                  <c:v>9.5062499999996053E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.71813660205079421</c:v>
+                  <c:v>2.4378906249997723E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-1.0000000000000133</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1783,7 +1811,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$D$5:$D$85</c:f>
+              <c:f>Hoja1!$B$5:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -2035,7 +2063,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$H$5:$H$85</c:f>
+              <c:f>Hoja1!$F$5:$F$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -2312,7 +2340,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$D$5:$D$85</c:f>
+              <c:f>Hoja1!$B$5:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -2564,7 +2592,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$I$5:$I$85</c:f>
+              <c:f>Hoja1!$G$5:$G$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -2842,7 +2870,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$D$5:$D$85</c:f>
+              <c:f>Hoja1!$B$5:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -3094,7 +3122,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$J$5:$J$85</c:f>
+              <c:f>Hoja1!$H$5:$H$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -3562,7 +3590,802 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>v(xi)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$5:$B$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.92499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.87499999999999989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.84999999999999987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.82499999999999984</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.79999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.7749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.74999999999999978</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.72499999999999976</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.69999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.67499999999999971</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.64999999999999969</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.62499999999999967</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.59999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.57499999999999962</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.5499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.52499999999999958</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.49999999999999956</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.47499999999999953</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.44999999999999951</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.42499999999999949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.39999999999999947</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.37499999999999944</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.34999999999999942</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.3249999999999994</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.29999999999999938</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.27499999999999936</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.24999999999999936</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.22499999999999937</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.19999999999999937</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.17499999999999938</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.14999999999999938</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.12499999999999939</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-9.9999999999999395E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-7.49999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-4.9999999999999399E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.4999999999999398E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.0368376963992887E-16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.5000000000000605E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.0000000000000606E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.5000000000000608E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.10000000000000062</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.12500000000000061</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.15000000000000061</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.1750000000000006</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.20000000000000059</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.22500000000000059</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.25000000000000061</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.27500000000000063</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.30000000000000066</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.32500000000000068</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.3500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.37500000000000072</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.40000000000000074</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.42500000000000077</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.45000000000000079</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.47500000000000081</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.50000000000000078</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.5250000000000008</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.55000000000000082</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.57500000000000084</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.60000000000000087</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.62500000000000089</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.65000000000000091</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67500000000000093</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.70000000000000095</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.72500000000000098</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.77500000000000102</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.80000000000000104</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.82500000000000107</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.85000000000000109</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.87500000000000111</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.90000000000000113</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.92500000000000115</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.95000000000000118</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.9750000000000012</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.0000000000000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$J$5:$J$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99897139404296853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99613617187499992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99184816650390617</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98643250000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98018646240234364</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97338039062499992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96625854736328143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95903999999999989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9519194995117185</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94506835937499978</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93863533447265635</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93274750000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92751113037109367</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92301257812500004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91931915283203136</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91648000000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91452697998046872</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9134755468750001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.91332562744140633</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9140625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.91565767333984383</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91806976562500009</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.92124538330078132</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.92512000000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.92961883544921897</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9346577343750001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.94014404541015628</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.94597750000000014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.95205109130859378</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.95825195312500022</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.96446223876953141</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.97056000000000009</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.97642006591796882</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.98191492187500018</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.98691558837890636</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99129250000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.99491638427734386</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.99765914062500005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.99939471923828127</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.99935567138671866</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.99734710937499993</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.99386525634765621</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.98880749999999984</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.98207855224609353</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97359132812499982</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.96326782470703098</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.95103999999999966</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.93685065185546845</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.92065429687499944</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.90241804931640579</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.88212249999999948</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.85976259521484322</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.83534851562499923</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.80890655517578036</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.78047999999999917</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.75013000732421786</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.71793648437499891</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.68399896728515519</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.64843749999999889</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61139351318359259</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.57303070312499882</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.53353591064452988</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.49311999999999856</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.45201873779296731</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.41049367187499847</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.36883301025390469</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.32735249999999844</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.28639630615234224</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.24633789062499845</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.20758089111327965</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.17055999999999841</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.13574184326171734</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.10362585937499857</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.4745178222655084E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.9667499999998976E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.8995974121092949E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.3370078124999574E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.466496582030909E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B3A-46E6-AD25-27FB0ACAE511}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="77018976"/>
+        <c:axId val="77019392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="77018976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77019392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="77019392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77018976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4118,20 +4941,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>123823</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>176211</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619123</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>242886</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4147,6 +5486,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4418,2514 +5787,2883 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:L85"/>
+  <dimension ref="B1:T85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="S3" sqref="S3:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="11.42578125" style="4"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="11.42578125" style="4"/>
+    <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="K1" s="5" t="s">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="I1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="6">
+      <c r="J1" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="K2" s="5" t="s">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="6">
+      <c r="J2" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ref="C5:C36" si="0">(-40*phi^2 - 10*phi) / (80*phi^2 - 20*phi - 4) * B5   + (16*phi + 8 )/(32*phi + 8) * B5^2 +
+    (40*phi + 10 )/(160*phi^2 - 40*phi - 8) * B5^3 +  (- 4 )/(32*phi + 8) * B5^4 +
+    (- 6 )/(160*phi^2 - 40*phi - 8) * B5^5</f>
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>8</v>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5:D36" si="1" xml:space="preserve"> (-L*phi) / (80*phi^2 - 20*phi - 4) * B5 +
+            (L)/(32*phi + 8) * B5^2 +
+            (L)/(160*phi^2 - 40*phi - 8) * B5^3 +
+            (-L)/(32*phi + 8) * B5^4 +
+            (2*L*phi - L)/(160*phi^2 - 40*phi - 8) * B5^5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B5^2 +  (8)/(32*phi + 8) * B5 ^4</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" ref="F5:F36" si="2">(-18*L*phi -2*L ) / (80*phi^2 - 20*phi - 4) * B5 +
+         (40*L*phi + 8*L)/(160*phi^2 - 40*phi - 8) * B5^3 +
+         (- 4*L*phi  - 4*L)/(160*phi^2 - 40*phi - 8) * B5^5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5:G36" si="3">(40*phi^2 + 10*phi) / (80*phi^2 - 20*phi - 4) * B5 +
+     (16*phi + 8)/(32*phi + 8) * B5^2 +
+     (- 40*phi - 10)/(160*phi^2 - 40*phi - 8) * B5^3 +
+     (- 4)/(32*phi + 8) * B5^4 +
+     (6)/(160*phi^2 - 40*phi - 8) * B5^5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" ref="H5:H36" si="4" xml:space="preserve"> (- L*phi ) / (80*phi^2 - 20*phi - 4) * B5 +
+         (- L)/(32*phi + 8) * B5^2 +
+         (L)/(160*phi^2 - 40*phi - 8) * B5^3 +
+         (L)/(32*phi + 8) * B5^4 +
+         (2*L*phi - L)/(160*phi^2 - 40*phi - 8) * B5^5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <f>C5*T$3+D5*T$4+E5*T$5+F5*T$6+G5*T$7+H5*T$8</f>
+        <v>1</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="7">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" ref="E5:E36" si="0">(-40*phi^2 - 10*phi) / (80*phi^2 - 20*phi - 4) * D5   + (16*phi + 8 )/(32*phi + 8) * D5^2 +
-    (40*phi + 10 )/(160*phi^2 - 40*phi - 8) * D5^3 +  (- 4 )/(32*phi + 8) * D5^4 +
-    (- 6 )/(160*phi^2 - 40*phi - 8) * D5^5</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" ref="F5:F36" si="1" xml:space="preserve"> (-L*phi) / (80*phi^2 - 20*phi - 4) * D5 +
-            (L)/(32*phi + 8) * D5^2 +
-            (L)/(160*phi^2 - 40*phi - 8) * D5^3 +
-            (-L)/(32*phi + 8) * D5^4 +
-            (2*L*phi - L)/(160*phi^2 - 40*phi - 8) * D5^5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" ref="G5:G36" si="2">1 + (- 32*phi  - 16 )/(32*phi + 8) * D5^2 * (8)/(32*phi + 8) * D5 ^4</f>
-        <v>-1</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" ref="H5:H36" si="3">(-18*L*phi -2*L ) / (80*phi^2 - 20*phi - 4) * D5 +
-         (40*L*phi + 8*L)/(160*phi^2 - 40*phi - 8) * D5^3 +
-         (- 4*L*phi  - 4*L)/(160*phi^2 - 40*phi - 8) * D5^5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" ref="I5:I36" si="4">(40*phi^2 + 10*phi) / (80*phi^2 - 20*phi - 4) * D5 +
-     (16*phi + 8)/(32*phi + 8) * D5^2 +
-     (- 40*phi - 10)/(160*phi^2 - 40*phi - 8) * D5^3 +
-     (- 4)/(32*phi + 8) * D5^4 +
-     (6)/(160*phi^2 - 40*phi - 8) * D5^5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" ref="J5:J36" si="5" xml:space="preserve"> (- L*phi ) / (80*phi^2 - 20*phi - 4) * D5 +
-         (- L)/(32*phi + 8) * D5^2 +
-         (L)/(160*phi^2 - 40*phi - 8) * D5^3 +
-         (L)/(32*phi + 8) * D5^4 +
-         (2*L*phi - L)/(160*phi^2 - 40*phi - 8) * D5^5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D6" s="3">
-        <f>D5+0.025</f>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <f>B5+0.025</f>
         <v>-0.97499999999999998</v>
       </c>
-      <c r="E6" s="3">
+      <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>0.99653350341796854</v>
       </c>
-      <c r="F6" s="3">
+      <c r="D6" s="3">
         <f t="shared" si="1"/>
         <v>5.7937994384765656E-2</v>
       </c>
+      <c r="E6" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B6^2 +  (8)/(32*phi + 8) * B6 ^4</f>
+        <v>2.4378906249999943E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="2"/>
+        <v>-5.9423583984377082E-3</v>
+      </c>
       <c r="G6" s="3">
-        <f t="shared" si="2"/>
-        <v>-0.71813660205078089</v>
+        <f t="shared" si="3"/>
+        <v>1.0286059570312478E-3</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="3"/>
-        <v>-5.9423583984377082E-3</v>
-      </c>
-      <c r="I6" s="3">
         <f t="shared" si="4"/>
-        <v>1.0286059570312478E-3</v>
+        <v>-7.3339233398439507E-4</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="5"/>
-        <v>-7.3339233398439507E-4</v>
+        <f t="shared" ref="J6:J69" si="5">C6*T$3+D6*T$4+E6*T$5+F6*T$6+G6*T$7+H6*T$8</f>
+        <v>0.99897139404296853</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D7" s="3">
-        <f t="shared" ref="D7:D25" si="6">D6+0.025</f>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <f t="shared" ref="B7:B25" si="6">B6+0.025</f>
         <v>-0.95</v>
       </c>
-      <c r="E7" s="3">
+      <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>0.98662992187499987</v>
       </c>
-      <c r="F7" s="3">
+      <c r="D7" s="3">
         <f t="shared" si="1"/>
         <v>0.10724238281249998</v>
       </c>
+      <c r="E7" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B7^2 +  (8)/(32*phi + 8) * B7 ^4</f>
+        <v>9.5062500000000494E-3</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="2"/>
+        <v>-2.2577343750000534E-2</v>
+      </c>
       <c r="G7" s="3">
-        <f t="shared" si="2"/>
-        <v>-0.47018378124999982</v>
+        <f t="shared" si="3"/>
+        <v>3.8638281250001905E-3</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="3"/>
-        <v>-2.2577343750000534E-2</v>
-      </c>
-      <c r="I7" s="3">
         <f t="shared" si="4"/>
-        <v>3.8638281250001905E-3</v>
+        <v>-2.7498046875000792E-3</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="5"/>
-        <v>-2.7498046875000792E-3</v>
+        <v>0.99613617187499992</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D8" s="3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
         <f t="shared" si="6"/>
         <v>-0.92499999999999993</v>
       </c>
-      <c r="E8" s="3">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>0.97100402587890611</v>
       </c>
-      <c r="F8" s="3">
+      <c r="D8" s="3">
         <f t="shared" si="1"/>
         <v>0.14862306518554691</v>
       </c>
+      <c r="E8" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B8^2 +  (8)/(32*phi + 8) * B8 ^4</f>
+        <v>2.0844140625000063E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="2"/>
+        <v>-4.8202075195312943E-2</v>
+      </c>
       <c r="G8" s="3">
-        <f t="shared" si="2"/>
-        <v>-0.25279609814453075</v>
+        <f t="shared" si="3"/>
+        <v>8.1518334960938854E-3</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="3"/>
-        <v>-4.8202075195312943E-2</v>
-      </c>
-      <c r="I8" s="3">
         <f t="shared" si="4"/>
-        <v>8.1518334960938854E-3</v>
+        <v>-5.7905090332031617E-3</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="5"/>
-        <v>-5.7905090332031617E-3</v>
+        <v>0.99184816650390617</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8" s="7">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D9" s="3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
         <f t="shared" si="6"/>
         <v>-0.89999999999999991</v>
       </c>
-      <c r="E9" s="3">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>0.95033250000000002</v>
       </c>
-      <c r="F9" s="3">
+      <c r="D9" s="3">
         <f t="shared" si="1"/>
         <v>0.18275625000000018</v>
       </c>
+      <c r="E9" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B9^2 +  (8)/(32*phi + 8) * B9 ^4</f>
+        <v>3.6100000000000021E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="2"/>
+        <v>-8.1225000000000325E-2</v>
+      </c>
       <c r="G9" s="3">
-        <f t="shared" si="2"/>
-        <v>-6.2881999999999216E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.3567500000000066E-2</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="3"/>
-        <v>-8.1225000000000325E-2</v>
-      </c>
-      <c r="I9" s="3">
         <f t="shared" si="4"/>
-        <v>1.3567500000000066E-2</v>
+        <v>-9.6187500000000092E-3</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="5"/>
-        <v>-9.6187500000000092E-3</v>
+        <v>0.98643250000000005</v>
       </c>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D10" s="3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
         <f t="shared" si="6"/>
         <v>-0.87499999999999989</v>
       </c>
-      <c r="E10" s="3">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>0.92525482177734353</v>
       </c>
-      <c r="F10" s="3">
+      <c r="D10" s="3">
         <f t="shared" si="1"/>
         <v>0.21028518676757824</v>
       </c>
+      <c r="E10" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B10^2 +  (8)/(32*phi + 8) * B10 ^4</f>
+        <v>5.4931640625000111E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.12016296386718794</v>
+      </c>
       <c r="G10" s="3">
-        <f t="shared" si="2"/>
-        <v>0.10240936279296953</v>
+        <f t="shared" si="3"/>
+        <v>1.9813537597656417E-2</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.12016296386718794</v>
-      </c>
-      <c r="I10" s="3">
         <f t="shared" si="4"/>
-        <v>1.9813537597656417E-2</v>
+        <v>-1.4019012451171986E-2</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="5"/>
-        <v>-1.4019012451171986E-2</v>
+        <v>0.98018646240234364</v>
       </c>
     </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D11" s="3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
         <f t="shared" si="6"/>
         <v>-0.84999999999999987</v>
       </c>
-      <c r="E11" s="3">
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>0.89637414062499987</v>
       </c>
-      <c r="F11" s="3">
+      <c r="D11" s="3">
         <f t="shared" si="1"/>
         <v>0.23182089843749998</v>
       </c>
+      <c r="E11" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B11^2 +  (8)/(32*phi + 8) * B11 ^4</f>
+        <v>7.7006250000000054E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.16363828125000035</v>
+      </c>
       <c r="G11" s="3">
-        <f t="shared" si="2"/>
-        <v>0.24570096875000069</v>
+        <f t="shared" si="3"/>
+        <v>2.6619609375000131E-2</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.16363828125000035</v>
-      </c>
-      <c r="I11" s="3">
         <f t="shared" si="4"/>
-        <v>2.6619609375000131E-2</v>
+        <v>-1.8796289062500082E-2</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="5"/>
-        <v>-1.8796289062500082E-2</v>
+        <v>0.97338039062499992</v>
       </c>
     </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D12" s="3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
         <f t="shared" si="6"/>
         <v>-0.82499999999999984</v>
       </c>
-      <c r="E12" s="3">
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>0.86425815673828121</v>
       </c>
-      <c r="F12" s="3">
+      <c r="D12" s="3">
         <f t="shared" si="1"/>
         <v>0.24794291381835948</v>
       </c>
+      <c r="E12" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B12^2 +  (8)/(32*phi + 8) * B12 ^4</f>
+        <v>0.10200039062500021</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.21037580566406278</v>
+      </c>
       <c r="G12" s="3">
-        <f t="shared" si="2"/>
-        <v>0.36940040576171951</v>
+        <f t="shared" si="3"/>
+        <v>3.3741452636718794E-2</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.21037580566406278</v>
-      </c>
-      <c r="I12" s="3">
         <f t="shared" si="4"/>
-        <v>3.3741452636718794E-2</v>
+        <v>-2.3775347900390653E-2</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="5"/>
-        <v>-2.3775347900390653E-2</v>
+        <v>0.96625854736328143</v>
       </c>
     </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D13" s="3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
         <f t="shared" si="6"/>
         <v>-0.79999999999999982</v>
       </c>
-      <c r="E13" s="3">
+      <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>0.82943999999999973</v>
       </c>
-      <c r="F13" s="3">
+      <c r="D13" s="3">
         <f t="shared" si="1"/>
         <v>0.2592000000000001</v>
       </c>
+      <c r="E13" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B13^2 +  (8)/(32*phi + 8) * B13 ^4</f>
+        <v>0.12960000000000022</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.25920000000000021</v>
+      </c>
       <c r="G13" s="3">
-        <f t="shared" si="2"/>
-        <v>0.4757120000000008</v>
+        <f t="shared" si="3"/>
+        <v>4.0960000000000024E-2</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.25920000000000021</v>
-      </c>
-      <c r="I13" s="3">
         <f t="shared" si="4"/>
-        <v>4.0960000000000024E-2</v>
+        <v>-2.880000000000002E-2</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="5"/>
-        <v>-2.880000000000002E-2</v>
+        <v>0.95903999999999989</v>
       </c>
     </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D14" s="3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
         <f t="shared" si="6"/>
         <v>-0.7749999999999998</v>
       </c>
-      <c r="E14" s="3">
+      <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>0.79241910888671829</v>
       </c>
-      <c r="F14" s="3">
+      <c r="D14" s="3">
         <f t="shared" si="1"/>
         <v>0.26611089477539074</v>
       </c>
+      <c r="E14" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B14^2 +  (8)/(32*phi + 8) * B14 ^4</f>
+        <v>0.15950039062500021</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.30903200683593779</v>
+      </c>
       <c r="G14" s="3">
-        <f t="shared" si="2"/>
-        <v>0.56664859326171935</v>
+        <f t="shared" si="3"/>
+        <v>4.8080500488281303E-2</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.30903200683593779</v>
-      </c>
-      <c r="I14" s="3">
         <f t="shared" si="4"/>
-        <v>4.8080500488281303E-2</v>
+        <v>-3.3732366943359404E-2</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="5"/>
-        <v>-3.3732366943359404E-2</v>
+        <v>0.9519194995117185</v>
       </c>
     </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B15" s="3">
         <f t="shared" si="6"/>
         <v>-0.74999999999999978</v>
       </c>
-      <c r="E15" s="3">
+      <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>0.75366210937499956</v>
       </c>
-      <c r="F15" s="3">
+      <c r="D15" s="3">
         <f t="shared" si="1"/>
         <v>0.2691650390625</v>
       </c>
+      <c r="E15" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B15^2 +  (8)/(32*phi + 8) * B15 ^4</f>
+        <v>0.19140625000000028</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.35888671875000044</v>
+      </c>
       <c r="G15" s="3">
-        <f t="shared" si="2"/>
-        <v>0.64404296875000067</v>
+        <f t="shared" si="3"/>
+        <v>5.4931640625000028E-2</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.35888671875000044</v>
-      </c>
-      <c r="I15" s="3">
         <f t="shared" si="4"/>
-        <v>5.4931640625000028E-2</v>
+        <v>-3.8452148437500028E-2</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="5"/>
-        <v>-3.8452148437500028E-2</v>
+        <v>0.94506835937499978</v>
       </c>
     </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D16" s="3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
         <f t="shared" si="6"/>
         <v>-0.72499999999999976</v>
       </c>
-      <c r="E16" s="3">
+      <c r="C16" s="3">
         <f t="shared" si="0"/>
         <v>0.71360369384765598</v>
       </c>
-      <c r="F16" s="3">
+      <c r="D16" s="3">
         <f t="shared" si="1"/>
         <v>0.26882330932617193</v>
       </c>
+      <c r="E16" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B16^2 +  (8)/(32*phi + 8) * B16 ^4</f>
+        <v>0.22503164062500031</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.40786984863281273</v>
+      </c>
       <c r="G16" s="3">
-        <f t="shared" si="2"/>
-        <v>0.70955892529296927</v>
+        <f t="shared" si="3"/>
+        <v>6.1364665527343792E-2</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.40786984863281273</v>
-      </c>
-      <c r="I16" s="3">
         <f t="shared" si="4"/>
-        <v>6.1364665527343792E-2</v>
+        <v>-4.2855889892578158E-2</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="5"/>
-        <v>-4.2855889892578158E-2</v>
+        <v>0.93863533447265635</v>
       </c>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D17" s="3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
         <f t="shared" si="6"/>
         <v>-0.69999999999999973</v>
       </c>
-      <c r="E17" s="3">
+      <c r="C17" s="3">
         <f t="shared" si="0"/>
         <v>0.67264749999999962</v>
       </c>
-      <c r="F17" s="3">
+      <c r="D17" s="3">
         <f t="shared" si="1"/>
         <v>0.26551874999999991</v>
       </c>
+      <c r="E17" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B17^2 +  (8)/(32*phi + 8) * B17 ^4</f>
+        <v>0.26010000000000044</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.45517500000000066</v>
+      </c>
       <c r="G17" s="3">
-        <f t="shared" si="2"/>
-        <v>0.76470200000000055</v>
+        <f t="shared" si="3"/>
+        <v>6.7252500000000062E-2</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.45517500000000066</v>
-      </c>
-      <c r="I17" s="3">
         <f t="shared" si="4"/>
-        <v>6.7252500000000062E-2</v>
+        <v>-4.6856250000000044E-2</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="5"/>
-        <v>-4.6856250000000044E-2</v>
+        <v>0.93274750000000006</v>
       </c>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D18" s="3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="3">
         <f t="shared" si="6"/>
         <v>-0.67499999999999971</v>
       </c>
-      <c r="E18" s="3">
+      <c r="C18" s="3">
         <f t="shared" si="0"/>
         <v>0.63116698974609331</v>
       </c>
-      <c r="F18" s="3">
+      <c r="D18" s="3">
         <f t="shared" si="1"/>
         <v>0.25965730590820302</v>
       </c>
+      <c r="E18" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B18^2 +  (8)/(32*phi + 8) * B18 ^4</f>
+        <v>0.29634414062500042</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.50008073730468794</v>
+      </c>
       <c r="G18" s="3">
-        <f t="shared" si="2"/>
-        <v>0.81082983935546926</v>
+        <f t="shared" si="3"/>
+        <v>7.2488869628906286E-2</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.50008073730468794</v>
-      </c>
-      <c r="I18" s="3">
         <f t="shared" si="4"/>
-        <v>7.2488869628906286E-2</v>
+        <v>-5.0381268310546873E-2</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="5"/>
-        <v>-5.0381268310546873E-2</v>
+        <v>0.92751113037109367</v>
       </c>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D19" s="3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="3">
         <f t="shared" si="6"/>
         <v>-0.64999999999999969</v>
       </c>
-      <c r="E19" s="3">
+      <c r="C19" s="3">
         <f t="shared" si="0"/>
         <v>0.58950632812499959</v>
       </c>
-      <c r="F19" s="3">
+      <c r="D19" s="3">
         <f t="shared" si="1"/>
         <v>0.25161855468749988</v>
       </c>
+      <c r="E19" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B19^2 +  (8)/(32*phi + 8) * B19 ^4</f>
+        <v>0.33350625000000045</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.5419476562500003</v>
+      </c>
       <c r="G19" s="3">
-        <f t="shared" si="2"/>
-        <v>0.84916221875000042</v>
+        <f t="shared" si="3"/>
+        <v>7.6987421875000031E-2</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.5419476562500003</v>
-      </c>
-      <c r="I19" s="3">
         <f t="shared" si="4"/>
-        <v>7.6987421875000031E-2</v>
+        <v>-5.337363281250003E-2</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="5"/>
-        <v>-5.337363281250003E-2</v>
+        <v>0.92301257812500004</v>
       </c>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D20" s="3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="3">
         <f t="shared" si="6"/>
         <v>-0.62499999999999967</v>
       </c>
-      <c r="E20" s="3">
+      <c r="C20" s="3">
         <f t="shared" si="0"/>
         <v>0.54798126220703081</v>
       </c>
-      <c r="F20" s="3">
+      <c r="D20" s="3">
         <f t="shared" si="1"/>
         <v>0.24175643920898421</v>
       </c>
+      <c r="E20" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B20^2 +  (8)/(32*phi + 8) * B20 ^4</f>
+        <v>0.37133789062500056</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.58021545410156294</v>
+      </c>
       <c r="G20" s="3">
-        <f t="shared" si="2"/>
-        <v>0.88079071044921919</v>
+        <f t="shared" si="3"/>
+        <v>8.0680847167968778E-2</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.58021545410156294</v>
-      </c>
-      <c r="I20" s="3">
         <f t="shared" si="4"/>
-        <v>8.0680847167968778E-2</v>
+        <v>-5.5789947509765639E-2</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="5"/>
-        <v>-5.5789947509765639E-2</v>
+        <v>0.91931915283203136</v>
       </c>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D21" s="3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="3">
         <f t="shared" si="6"/>
         <v>-0.59999999999999964</v>
       </c>
-      <c r="E21" s="3">
+      <c r="C21" s="3">
         <f t="shared" si="0"/>
         <v>0.50687999999999955</v>
       </c>
-      <c r="F21" s="3">
+      <c r="D21" s="3">
         <f t="shared" si="1"/>
         <v>0.23039999999999983</v>
       </c>
+      <c r="E21" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B21^2 +  (8)/(32*phi + 8) * B21 ^4</f>
+        <v>0.40960000000000052</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.61440000000000028</v>
+      </c>
       <c r="G21" s="3">
-        <f t="shared" si="2"/>
-        <v>0.90668800000000027</v>
+        <f t="shared" si="3"/>
+        <v>8.3520000000000011E-2</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.61440000000000028</v>
-      </c>
-      <c r="I21" s="3">
         <f t="shared" si="4"/>
-        <v>8.3520000000000011E-2</v>
+        <v>-5.7600000000000012E-2</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="5"/>
-        <v>-5.7600000000000012E-2</v>
+        <v>0.91648000000000007</v>
       </c>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D22" s="3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="3">
         <f t="shared" si="6"/>
         <v>-0.57499999999999962</v>
       </c>
-      <c r="E22" s="3">
+      <c r="C22" s="3">
         <f t="shared" si="0"/>
         <v>0.46646408935546807</v>
       </c>
-      <c r="F22" s="3">
+      <c r="D22" s="3">
         <f t="shared" si="1"/>
         <v>0.21785410766601543</v>
       </c>
+      <c r="E22" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B22^2 +  (8)/(32*phi + 8) * B22 ^4</f>
+        <v>0.4480628906250006</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.64409040527343808</v>
+      </c>
       <c r="G22" s="3">
-        <f t="shared" si="2"/>
-        <v>0.92771685107421908</v>
+        <f t="shared" si="3"/>
+        <v>8.5473020019531304E-2</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.64409040527343808</v>
-      </c>
-      <c r="I22" s="3">
         <f t="shared" si="4"/>
-        <v>8.5473020019531304E-2</v>
+        <v>-5.878602905273439E-2</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="5"/>
-        <v>-5.878602905273439E-2</v>
+        <v>0.91452697998046872</v>
       </c>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D23" s="3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="3">
         <f t="shared" si="6"/>
         <v>-0.5499999999999996</v>
       </c>
-      <c r="E23" s="3">
+      <c r="C23" s="3">
         <f t="shared" si="0"/>
         <v>0.42696929687499946</v>
       </c>
-      <c r="F23" s="3">
+      <c r="D23" s="3">
         <f t="shared" si="1"/>
         <v>0.20440019531249978</v>
       </c>
+      <c r="E23" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B23^2 +  (8)/(32*phi + 8) * B23 ^4</f>
+        <v>0.48650625000000064</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.66894609375000047</v>
+      </c>
       <c r="G23" s="3">
-        <f t="shared" si="2"/>
-        <v>0.94463871875000027</v>
+        <f t="shared" si="3"/>
+        <v>8.6524453125000012E-2</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.66894609375000047</v>
-      </c>
-      <c r="I23" s="3">
         <f t="shared" si="4"/>
-        <v>8.6524453125000012E-2</v>
+        <v>-5.9341992187500005E-2</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="5"/>
-        <v>-5.9341992187500005E-2</v>
+        <v>0.9134755468750001</v>
       </c>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D24" s="3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="3">
         <f t="shared" si="6"/>
         <v>-0.52499999999999958</v>
       </c>
-      <c r="E24" s="3">
+      <c r="C24" s="3">
         <f t="shared" si="0"/>
         <v>0.38860648681640558</v>
       </c>
-      <c r="F24" s="3">
+      <c r="D24" s="3">
         <f t="shared" si="1"/>
         <v>0.19029699096679667</v>
       </c>
+      <c r="E24" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B24^2 +  (8)/(32*phi + 8) * B24 ^4</f>
+        <v>0.52471914062500069</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.68869387207031263</v>
+      </c>
       <c r="G24" s="3">
-        <f t="shared" si="2"/>
-        <v>0.95812201123046892</v>
+        <f t="shared" si="3"/>
+        <v>8.6674372558593726E-2</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.68869387207031263</v>
-      </c>
-      <c r="I24" s="3">
         <f t="shared" si="4"/>
-        <v>8.6674372558593726E-2</v>
+        <v>-5.9272833251953108E-2</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="5"/>
-        <v>-5.9272833251953108E-2</v>
+        <v>0.91332562744140633</v>
       </c>
     </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D25" s="3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
         <f t="shared" si="6"/>
         <v>-0.49999999999999956</v>
       </c>
-      <c r="E25" s="3">
+      <c r="C25" s="3">
         <f t="shared" si="0"/>
         <v>0.35156249999999933</v>
       </c>
-      <c r="F25" s="3">
+      <c r="D25" s="3">
         <f t="shared" si="1"/>
         <v>0.17578124999999972</v>
       </c>
+      <c r="E25" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B25^2 +  (8)/(32*phi + 8) * B25 ^4</f>
+        <v>0.56250000000000067</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.70312500000000022</v>
+      </c>
       <c r="G25" s="3">
-        <f t="shared" si="2"/>
-        <v>0.96875000000000022</v>
+        <f t="shared" si="3"/>
+        <v>8.5937499999999972E-2</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.70312500000000022</v>
-      </c>
-      <c r="I25" s="3">
         <f t="shared" si="4"/>
-        <v>8.5937499999999972E-2</v>
+        <v>-5.8593749999999986E-2</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="5"/>
-        <v>-5.8593749999999986E-2</v>
+        <v>0.9140625</v>
       </c>
     </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D26" s="3">
-        <f t="shared" ref="D26:D38" si="7">D25+0.025</f>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="3">
+        <f t="shared" ref="B26:B38" si="7">B25+0.025</f>
         <v>-0.47499999999999953</v>
       </c>
-      <c r="E26" s="3">
+      <c r="C26" s="3">
         <f t="shared" si="0"/>
         <v>0.31600103271484303</v>
       </c>
-      <c r="F26" s="3">
+      <c r="D26" s="3">
         <f t="shared" si="1"/>
         <v>0.16106848754882785</v>
       </c>
+      <c r="E26" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B26^2 +  (8)/(32*phi + 8) * B26 ^4</f>
+        <v>0.59965664062500079</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.71209226074218779</v>
+      </c>
       <c r="G26" s="3">
-        <f t="shared" si="2"/>
-        <v>0.97702837841796886</v>
+        <f t="shared" si="3"/>
+        <v>8.4342326660156217E-2</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.71209226074218779</v>
-      </c>
-      <c r="I26" s="3">
         <f t="shared" si="4"/>
-        <v>8.4342326660156217E-2</v>
+        <v>-5.7329461669921859E-2</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="5"/>
-        <v>-5.7329461669921859E-2</v>
+        <v>0.91565767333984383</v>
       </c>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D27" s="3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="3">
         <f t="shared" si="7"/>
         <v>-0.44999999999999951</v>
       </c>
-      <c r="E27" s="3">
+      <c r="C27" s="3">
         <f t="shared" si="0"/>
         <v>0.28206351562499937</v>
       </c>
-      <c r="F27" s="3">
+      <c r="D27" s="3">
         <f t="shared" si="1"/>
         <v>0.14635371093749974</v>
       </c>
+      <c r="E27" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B27^2 +  (8)/(32*phi + 8) * B27 ^4</f>
+        <v>0.63600625000000066</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.71550703124999993</v>
+      </c>
       <c r="G27" s="3">
-        <f t="shared" si="2"/>
-        <v>0.98339246875000008</v>
+        <f t="shared" si="3"/>
+        <v>8.1930234374999952E-2</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.71550703124999993</v>
-      </c>
-      <c r="I27" s="3">
         <f t="shared" si="4"/>
-        <v>8.1930234374999952E-2</v>
+        <v>-5.5513476562499983E-2</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="5"/>
-        <v>-5.5513476562499983E-2</v>
+        <v>0.91806976562500009</v>
       </c>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D28" s="3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="3">
         <f t="shared" si="7"/>
         <v>-0.42499999999999949</v>
       </c>
-      <c r="E28" s="3">
+      <c r="C28" s="3">
         <f t="shared" si="0"/>
         <v>0.24986999267578067</v>
       </c>
-      <c r="F28" s="3">
+      <c r="D28" s="3">
         <f t="shared" si="1"/>
         <v>0.13181215209960909</v>
       </c>
+      <c r="E28" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B28^2 +  (8)/(32*phi + 8) * B28 ^4</f>
+        <v>0.67137539062500062</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.71333635253906236</v>
+      </c>
       <c r="G28" s="3">
-        <f t="shared" si="2"/>
-        <v>0.98821407763671887</v>
+        <f t="shared" si="3"/>
+        <v>7.8754616699218682E-2</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.71333635253906236</v>
-      </c>
-      <c r="I28" s="3">
         <f t="shared" si="4"/>
-        <v>7.8754616699218682E-2</v>
+        <v>-5.3187359619140576E-2</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="5"/>
-        <v>-5.3187359619140576E-2</v>
+        <v>0.92124538330078132</v>
       </c>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D29" s="3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="3">
         <f t="shared" si="7"/>
         <v>-0.39999999999999947</v>
       </c>
-      <c r="E29" s="3">
+      <c r="C29" s="3">
         <f t="shared" si="0"/>
         <v>0.21951999999999938</v>
       </c>
-      <c r="F29" s="3">
+      <c r="D29" s="3">
         <f t="shared" si="1"/>
         <v>0.11759999999999969</v>
       </c>
+      <c r="E29" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B29^2 +  (8)/(32*phi + 8) * B29 ^4</f>
+        <v>0.70560000000000067</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.70559999999999978</v>
+      </c>
       <c r="G29" s="3">
-        <f t="shared" si="2"/>
-        <v>0.99180800000000002</v>
+        <f t="shared" si="3"/>
+        <v>7.4879999999999919E-2</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.70559999999999978</v>
-      </c>
-      <c r="I29" s="3">
         <f t="shared" si="4"/>
-        <v>7.4879999999999919E-2</v>
+        <v>-5.0399999999999945E-2</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="5"/>
-        <v>-5.0399999999999945E-2</v>
+        <v>0.92512000000000005</v>
       </c>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D30" s="3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="3">
         <f t="shared" si="7"/>
         <v>-0.37499999999999944</v>
       </c>
-      <c r="E30" s="3">
+      <c r="C30" s="3">
         <f t="shared" si="0"/>
         <v>0.19109344482421814</v>
       </c>
-      <c r="F30" s="3">
+      <c r="D30" s="3">
         <f t="shared" si="1"/>
         <v>0.10385513305664032</v>
       </c>
+      <c r="E30" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B30^2 +  (8)/(32*phi + 8) * B30 ^4</f>
+        <v>0.73852539062500078</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.69236755371093717</v>
+      </c>
       <c r="G30" s="3">
-        <f t="shared" si="2"/>
-        <v>0.99443817138671875</v>
+        <f t="shared" si="3"/>
+        <v>7.0381164550781139E-2</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.69236755371093717</v>
-      </c>
-      <c r="I30" s="3">
         <f t="shared" si="4"/>
-        <v>7.0381164550781139E-2</v>
+        <v>-4.7206878662109299E-2</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="5"/>
-        <v>-4.7206878662109299E-2</v>
+        <v>0.92961883544921897</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D31" s="3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="3">
         <f t="shared" si="7"/>
         <v>-0.34999999999999942</v>
       </c>
-      <c r="E31" s="3">
+      <c r="C31" s="3">
         <f t="shared" si="0"/>
         <v>0.16465148437499941</v>
       </c>
-      <c r="F31" s="3">
+      <c r="D31" s="3">
         <f t="shared" si="1"/>
         <v>9.0697851562499696E-2</v>
       </c>
+      <c r="E31" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B31^2 +  (8)/(32*phi + 8) * B31 ^4</f>
+        <v>0.77000625000000067</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.67375546874999948</v>
+      </c>
       <c r="G31" s="3">
-        <f t="shared" si="2"/>
-        <v>0.99632346875</v>
+        <f t="shared" si="3"/>
+        <v>6.5342265624999882E-2</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.67375546874999948</v>
-      </c>
-      <c r="I31" s="3">
         <f t="shared" si="4"/>
-        <v>6.5342265624999882E-2</v>
+        <v>-4.3669335937499915E-2</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="5"/>
-        <v>-4.3669335937499915E-2</v>
+        <v>0.9346577343750001</v>
       </c>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D32" s="3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="3">
         <f t="shared" si="7"/>
         <v>-0.3249999999999994</v>
       </c>
-      <c r="E32" s="3">
+      <c r="C32" s="3">
         <f t="shared" si="0"/>
         <v>0.14023740478515567</v>
       </c>
-      <c r="F32" s="3">
+      <c r="D32" s="3">
         <f t="shared" si="1"/>
         <v>7.8231610107421579E-2</v>
       </c>
+      <c r="E32" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B32^2 +  (8)/(32*phi + 8) * B32 ^4</f>
+        <v>0.79990664062500061</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.64992414550781175</v>
+      </c>
       <c r="G32" s="3">
-        <f t="shared" si="2"/>
-        <v>0.99764315966796879</v>
+        <f t="shared" si="3"/>
+        <v>5.9855954589843607E-2</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.64992414550781175</v>
-      </c>
-      <c r="I32" s="3">
         <f t="shared" si="4"/>
-        <v>5.9855954589843607E-2</v>
+        <v>-3.9853839111328032E-2</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="5"/>
-        <v>-3.9853839111328032E-2</v>
+        <v>0.94014404541015628</v>
       </c>
     </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D33" s="3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="3">
         <f t="shared" si="7"/>
         <v>-0.29999999999999938</v>
       </c>
-      <c r="E33" s="3">
+      <c r="C33" s="3">
         <f t="shared" si="0"/>
         <v>0.11787749999999947</v>
       </c>
-      <c r="F33" s="3">
+      <c r="D33" s="3">
         <f t="shared" si="1"/>
         <v>6.6543749999999721E-2</v>
       </c>
+      <c r="E33" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B33^2 +  (8)/(32*phi + 8) * B33 ^4</f>
+        <v>0.82810000000000061</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.62107499999999927</v>
+      </c>
       <c r="G33" s="3">
-        <f t="shared" si="2"/>
-        <v>0.99854200000000004</v>
+        <f t="shared" si="3"/>
+        <v>5.4022499999999855E-2</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.62107499999999927</v>
-      </c>
-      <c r="I33" s="3">
         <f t="shared" si="4"/>
-        <v>5.4022499999999855E-2</v>
+        <v>-3.5831249999999898E-2</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="5"/>
-        <v>-3.5831249999999898E-2</v>
+        <v>0.94597750000000014</v>
       </c>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D34" s="3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="3">
         <f t="shared" si="7"/>
         <v>-0.27499999999999936</v>
       </c>
-      <c r="E34" s="3">
+      <c r="C34" s="3">
         <f t="shared" si="0"/>
         <v>9.7581950683593266E-2</v>
       </c>
-      <c r="F34" s="3">
+      <c r="D34" s="3">
         <f t="shared" si="1"/>
         <v>5.5706231689452865E-2</v>
       </c>
+      <c r="E34" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B34^2 +  (8)/(32*phi + 8) * B34 ^4</f>
+        <v>0.85446914062500057</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.58744753417968665</v>
+      </c>
       <c r="G34" s="3">
-        <f t="shared" si="2"/>
-        <v>0.99913497998046874</v>
+        <f t="shared" si="3"/>
+        <v>4.7948908691406097E-2</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.58744753417968665</v>
-      </c>
-      <c r="I34" s="3">
         <f t="shared" si="4"/>
-        <v>4.7948908691406097E-2</v>
+        <v>-3.1676092529296776E-2</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="5"/>
-        <v>-3.1676092529296776E-2</v>
+        <v>0.95205109130859378</v>
       </c>
     </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D35" s="3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="3">
         <f t="shared" si="7"/>
         <v>-0.24999999999999936</v>
       </c>
-      <c r="E35" s="3">
+      <c r="C35" s="3">
         <f t="shared" si="0"/>
         <v>7.9345703124999556E-2</v>
       </c>
-      <c r="F35" s="3">
+      <c r="D35" s="3">
         <f t="shared" si="1"/>
         <v>4.5776367187499757E-2</v>
       </c>
+      <c r="E35" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B35^2 +  (8)/(32*phi + 8) * B35 ^4</f>
+        <v>0.87890625000000067</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.549316406249999</v>
+      </c>
       <c r="G35" s="3">
-        <f t="shared" si="2"/>
-        <v>0.99951171875</v>
+        <f t="shared" si="3"/>
+        <v>4.1748046874999847E-2</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.549316406249999</v>
-      </c>
-      <c r="I35" s="3">
         <f t="shared" si="4"/>
-        <v>4.1748046874999847E-2</v>
+        <v>-2.7465820312499892E-2</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="5"/>
-        <v>-2.7465820312499892E-2</v>
+        <v>0.95825195312500022</v>
       </c>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D36" s="3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="3">
         <f t="shared" si="7"/>
         <v>-0.22499999999999937</v>
       </c>
-      <c r="E36" s="3">
+      <c r="C36" s="3">
         <f t="shared" si="0"/>
         <v>6.3149348144530854E-2</v>
       </c>
-      <c r="F36" s="3">
+      <c r="D36" s="3">
         <f t="shared" si="1"/>
         <v>3.6797552490234156E-2</v>
       </c>
+      <c r="E36" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B36^2 +  (8)/(32*phi + 8) * B36 ^4</f>
+        <v>0.90131289062500053</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.50698850097656145</v>
+      </c>
       <c r="G36" s="3">
-        <f t="shared" si="2"/>
-        <v>0.99974050732421871</v>
+        <f t="shared" si="3"/>
+        <v>3.553776123046859E-2</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.50698850097656145</v>
-      </c>
-      <c r="I36" s="3">
         <f t="shared" si="4"/>
-        <v>3.553776123046859E-2</v>
+        <v>-2.3280084228515519E-2</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="5"/>
-        <v>-2.3280084228515519E-2</v>
+        <v>0.96446223876953141</v>
       </c>
     </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D37" s="3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="3">
         <f t="shared" si="7"/>
         <v>-0.19999999999999937</v>
       </c>
+      <c r="C37" s="3">
+        <f t="shared" ref="C37:C68" si="8">(-40*phi^2 - 10*phi) / (80*phi^2 - 20*phi - 4) * B37   + (16*phi + 8 )/(32*phi + 8) * B37^2 +
+    (40*phi + 10 )/(160*phi^2 - 40*phi - 8) * B37^3 +  (- 4 )/(32*phi + 8) * B37^4 +
+    (- 6 )/(160*phi^2 - 40*phi - 8) * B37^5</f>
+        <v>4.895999999999967E-2</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" ref="D37:D68" si="9" xml:space="preserve"> (-L*phi) / (80*phi^2 - 20*phi - 4) * B37 +
+            (L)/(32*phi + 8) * B37^2 +
+            (L)/(160*phi^2 - 40*phi - 8) * B37^3 +
+            (-L)/(32*phi + 8) * B37^4 +
+            (2*L*phi - L)/(160*phi^2 - 40*phi - 8) * B37^5</f>
+        <v>2.8799999999999815E-2</v>
+      </c>
       <c r="E37" s="3">
-        <f t="shared" ref="E37:E68" si="8">(-40*phi^2 - 10*phi) / (80*phi^2 - 20*phi - 4) * D37   + (16*phi + 8 )/(32*phi + 8) * D37^2 +
-    (40*phi + 10 )/(160*phi^2 - 40*phi - 8) * D37^3 +  (- 4 )/(32*phi + 8) * D37^4 +
-    (- 6 )/(160*phi^2 - 40*phi - 8) * D37^5</f>
-        <v>4.895999999999967E-2</v>
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B37^2 +  (8)/(32*phi + 8) * B37 ^4</f>
+        <v>0.92160000000000042</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" ref="F37:F68" si="9" xml:space="preserve"> (-L*phi) / (80*phi^2 - 20*phi - 4) * D37 +
-            (L)/(32*phi + 8) * D37^2 +
-            (L)/(160*phi^2 - 40*phi - 8) * D37^3 +
-            (-L)/(32*phi + 8) * D37^4 +
-            (2*L*phi - L)/(160*phi^2 - 40*phi - 8) * D37^5</f>
-        <v>2.8799999999999815E-2</v>
+        <f t="shared" ref="F37:F68" si="10">(-18*L*phi -2*L ) / (80*phi^2 - 20*phi - 4) * B37 +
+         (40*L*phi + 8*L)/(160*phi^2 - 40*phi - 8) * B37^3 +
+         (- 4*L*phi  - 4*L)/(160*phi^2 - 40*phi - 8) * B37^5</f>
+        <v>-0.46079999999999877</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" ref="G37:G68" si="10">1 + (- 32*phi  - 16 )/(32*phi + 8) * D37^2 * (8)/(32*phi + 8) * D37 ^4</f>
-        <v>0.99987199999999998</v>
+        <f t="shared" ref="G37:G68" si="11">(40*phi^2 + 10*phi) / (80*phi^2 - 20*phi - 4) * B37 +
+     (16*phi + 8)/(32*phi + 8) * B37^2 +
+     (- 40*phi - 10)/(160*phi^2 - 40*phi - 8) * B37^3 +
+     (- 4)/(32*phi + 8) * B37^4 +
+     (6)/(160*phi^2 - 40*phi - 8) * B37^5</f>
+        <v>2.9439999999999852E-2</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" ref="H37:H68" si="11">(-18*L*phi -2*L ) / (80*phi^2 - 20*phi - 4) * D37 +
-         (40*L*phi + 8*L)/(160*phi^2 - 40*phi - 8) * D37^3 +
-         (- 4*L*phi  - 4*L)/(160*phi^2 - 40*phi - 8) * D37^5</f>
-        <v>-0.46079999999999877</v>
-      </c>
-      <c r="I37" s="3">
-        <f t="shared" ref="I37:I68" si="12">(40*phi^2 + 10*phi) / (80*phi^2 - 20*phi - 4) * D37 +
-     (16*phi + 8)/(32*phi + 8) * D37^2 +
-     (- 40*phi - 10)/(160*phi^2 - 40*phi - 8) * D37^3 +
-     (- 4)/(32*phi + 8) * D37^4 +
-     (6)/(160*phi^2 - 40*phi - 8) * D37^5</f>
-        <v>2.9439999999999852E-2</v>
+        <f t="shared" ref="H37:H68" si="12" xml:space="preserve"> (- L*phi ) / (80*phi^2 - 20*phi - 4) * B37 +
+         (- L)/(32*phi + 8) * B37^2 +
+         (L)/(160*phi^2 - 40*phi - 8) * B37^3 +
+         (L)/(32*phi + 8) * B37^4 +
+         (2*L*phi - L)/(160*phi^2 - 40*phi - 8) * B37^5</f>
+        <v>-1.9199999999999901E-2</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" ref="J37:J68" si="13" xml:space="preserve"> (- L*phi ) / (80*phi^2 - 20*phi - 4) * D37 +
-         (- L)/(32*phi + 8) * D37^2 +
-         (L)/(160*phi^2 - 40*phi - 8) * D37^3 +
-         (L)/(32*phi + 8) * D37^4 +
-         (2*L*phi - L)/(160*phi^2 - 40*phi - 8) * D37^5</f>
-        <v>-1.9199999999999901E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.97056000000000009</v>
       </c>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D38" s="3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="3">
         <f t="shared" si="7"/>
         <v>-0.17499999999999938</v>
       </c>
-      <c r="E38" s="3">
+      <c r="C38" s="3">
         <f t="shared" si="8"/>
         <v>3.6732175292968461E-2</v>
       </c>
-      <c r="F38" s="3">
+      <c r="D38" s="3">
         <f t="shared" si="9"/>
         <v>2.1801470947265464E-2</v>
       </c>
+      <c r="E38" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B38^2 +  (8)/(32*phi + 8) * B38 ^4</f>
+        <v>0.93968789062500035</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="10"/>
+        <v>-0.4111134521484362</v>
+      </c>
       <c r="G38" s="3">
-        <f t="shared" si="10"/>
-        <v>0.99994255419921874</v>
+        <f t="shared" si="11"/>
+        <v>2.3579934082031108E-2</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="11"/>
-        <v>-0.4111134521484362</v>
-      </c>
-      <c r="I38" s="3">
         <f t="shared" si="12"/>
-        <v>2.3579934082031108E-2</v>
+        <v>-1.5307415771484279E-2</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="13"/>
-        <v>-1.5307415771484279E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.97642006591796882</v>
       </c>
     </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D39" s="3">
-        <f t="shared" ref="D39:D78" si="14">D38+0.025</f>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="3">
+        <f t="shared" ref="B39:B78" si="13">B38+0.025</f>
         <v>-0.14999999999999938</v>
       </c>
-      <c r="E39" s="3">
+      <c r="C39" s="3">
         <f t="shared" si="8"/>
         <v>2.6408671874999769E-2</v>
       </c>
-      <c r="F39" s="3">
+      <c r="D39" s="3">
         <f t="shared" si="9"/>
         <v>1.5808007812499861E-2</v>
       </c>
+      <c r="E39" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B39^2 +  (8)/(32*phi + 8) * B39 ^4</f>
+        <v>0.95550625000000045</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="10"/>
+        <v>-0.35831484374999861</v>
+      </c>
       <c r="G39" s="3">
-        <f t="shared" si="10"/>
-        <v>0.99997721875000001</v>
+        <f t="shared" si="11"/>
+        <v>1.8085078124999869E-2</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="11"/>
-        <v>-0.35831484374999861</v>
-      </c>
-      <c r="I39" s="3">
         <f t="shared" si="12"/>
-        <v>1.8085078124999869E-2</v>
+        <v>-1.1684179687499914E-2</v>
       </c>
       <c r="J39" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98191492187500018</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="3">
         <f t="shared" si="13"/>
-        <v>-1.1684179687499914E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D40" s="3">
-        <f t="shared" si="14"/>
         <v>-0.12499999999999939</v>
       </c>
-      <c r="E40" s="3">
+      <c r="C40" s="3">
         <f t="shared" si="8"/>
         <v>1.7921447753906066E-2</v>
       </c>
-      <c r="F40" s="3">
+      <c r="D40" s="3">
         <f t="shared" si="9"/>
         <v>1.0814666748046766E-2</v>
       </c>
+      <c r="E40" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B40^2 +  (8)/(32*phi + 8) * B40 ^4</f>
+        <v>0.96899414062500033</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="10"/>
+        <v>-0.30281066894531111</v>
+      </c>
       <c r="G40" s="3">
-        <f t="shared" si="10"/>
-        <v>0.99999237060546875</v>
+        <f t="shared" si="11"/>
+        <v>1.3084411621093634E-2</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="11"/>
-        <v>-0.30281066894531111</v>
-      </c>
-      <c r="I40" s="3">
         <f t="shared" si="12"/>
-        <v>1.3084411621093634E-2</v>
+        <v>-8.4114074707030504E-3</v>
       </c>
       <c r="J40" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98691558837890636</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="3">
         <f t="shared" si="13"/>
-        <v>-8.4114074707030504E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D41" s="3">
-        <f t="shared" si="14"/>
         <v>-9.9999999999999395E-2</v>
       </c>
-      <c r="E41" s="3">
+      <c r="C41" s="3">
         <f t="shared" si="8"/>
         <v>1.1192499999999857E-2</v>
       </c>
-      <c r="F41" s="3">
+      <c r="D41" s="3">
         <f t="shared" si="9"/>
         <v>6.8062499999999139E-3</v>
       </c>
+      <c r="E41" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B41^2 +  (8)/(32*phi + 8) * B41 ^4</f>
+        <v>0.98010000000000019</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="10"/>
+        <v>-0.24502499999999858</v>
+      </c>
       <c r="G41" s="3">
-        <f t="shared" si="10"/>
-        <v>0.99999800000000005</v>
+        <f t="shared" si="11"/>
+        <v>8.7074999999999046E-3</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="11"/>
-        <v>-0.24502499999999858</v>
-      </c>
-      <c r="I41" s="3">
         <f t="shared" si="12"/>
-        <v>8.7074999999999046E-3</v>
+        <v>-5.5687499999999375E-3</v>
       </c>
       <c r="J41" s="3">
+        <f t="shared" si="5"/>
+        <v>0.99129250000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="3">
         <f t="shared" si="13"/>
-        <v>-5.5687499999999375E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D42" s="3">
-        <f t="shared" si="14"/>
         <v>-7.49999999999994E-2</v>
       </c>
-      <c r="E42" s="3">
+      <c r="C42" s="3">
         <f t="shared" si="8"/>
         <v>6.1347436523436476E-3</v>
       </c>
-      <c r="F42" s="3">
+      <c r="D42" s="3">
         <f t="shared" si="9"/>
         <v>3.7580383300780634E-3</v>
       </c>
+      <c r="E42" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B42^2 +  (8)/(32*phi + 8) * B42 ^4</f>
+        <v>0.98878164062500018</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="10"/>
+        <v>-0.18539655761718607</v>
+      </c>
       <c r="G42" s="3">
-        <f t="shared" si="10"/>
-        <v>0.99999964404296871</v>
+        <f t="shared" si="11"/>
+        <v>5.0836157226561741E-3</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="11"/>
-        <v>-0.18539655761718607</v>
-      </c>
-      <c r="I42" s="3">
         <f t="shared" si="12"/>
-        <v>5.0836157226561741E-3</v>
+        <v>-3.233660888671826E-3</v>
       </c>
       <c r="J42" s="3">
+        <f t="shared" si="5"/>
+        <v>0.99491638427734386</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="3">
         <f t="shared" si="13"/>
-        <v>-3.233660888671826E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D43" s="3">
-        <f t="shared" si="14"/>
         <v>-4.9999999999999399E-2</v>
       </c>
-      <c r="E43" s="3">
+      <c r="C43" s="3">
         <f t="shared" si="8"/>
         <v>2.6528906249999348E-3</v>
       </c>
-      <c r="F43" s="3">
+      <c r="D43" s="3">
         <f t="shared" si="9"/>
         <v>1.6365234374999598E-3</v>
       </c>
+      <c r="E43" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B43^2 +  (8)/(32*phi + 8) * B43 ^4</f>
+        <v>0.99500625000000009</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="10"/>
+        <v>-0.12437578124999853</v>
+      </c>
       <c r="G43" s="3">
-        <f t="shared" si="10"/>
-        <v>0.99999996874999997</v>
+        <f t="shared" si="11"/>
+        <v>2.3408593749999454E-3</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="11"/>
-        <v>-0.12437578124999853</v>
-      </c>
-      <c r="I43" s="3">
         <f t="shared" si="12"/>
-        <v>2.3408593749999454E-3</v>
+        <v>-1.4806640624999653E-3</v>
       </c>
       <c r="J43" s="3">
+        <f t="shared" si="5"/>
+        <v>0.99765914062500005</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="3">
         <f t="shared" si="13"/>
-        <v>-1.4806640624999653E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D44" s="3">
-        <f t="shared" si="14"/>
         <v>-2.4999999999999398E-2</v>
       </c>
-      <c r="E44" s="3">
+      <c r="C44" s="3">
         <f t="shared" si="8"/>
         <v>6.4432861328121845E-4</v>
       </c>
-      <c r="F44" s="3">
+      <c r="D44" s="3">
         <f t="shared" si="9"/>
         <v>4.001403808593555E-4</v>
       </c>
+      <c r="E44" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B44^2 +  (8)/(32*phi + 8) * B44 ^4</f>
+        <v>0.99875039062500004</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="10"/>
+        <v>-6.2421899414061004E-2</v>
+      </c>
       <c r="G44" s="3">
-        <f t="shared" si="10"/>
-        <v>0.9999999995117187</v>
+        <f t="shared" si="11"/>
+        <v>6.0528076171872133E-4</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="11"/>
-        <v>-6.2421899414061004E-2</v>
-      </c>
-      <c r="I44" s="3">
         <f t="shared" si="12"/>
-        <v>6.0528076171872133E-4</v>
+        <v>-3.8062133789060687E-4</v>
       </c>
       <c r="J44" s="3">
+        <f t="shared" si="5"/>
+        <v>0.99939471923828127</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="3">
         <f t="shared" si="13"/>
-        <v>-3.8062133789060687E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D45" s="3">
-        <f t="shared" si="14"/>
         <v>6.0368376963992887E-16</v>
       </c>
-      <c r="E45" s="3">
+      <c r="C45" s="3">
         <f t="shared" si="8"/>
         <v>3.6443409372667444E-31</v>
       </c>
-      <c r="F45" s="3">
+      <c r="D45" s="3">
         <f t="shared" si="9"/>
         <v>2.2777130857917156E-31</v>
       </c>
+      <c r="E45" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B45^2 +  (8)/(32*phi + 8) * B45 ^4</f>
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="10"/>
+        <v>1.5092094240998222E-15</v>
+      </c>
       <c r="G45" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>3.6443409372667497E-31</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="12"/>
+        <v>-2.2777130857917182E-31</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H45" s="3">
-        <f t="shared" si="11"/>
-        <v>1.5092094240998222E-15</v>
-      </c>
-      <c r="I45" s="3">
-        <f t="shared" si="12"/>
-        <v>3.6443409372667497E-31</v>
-      </c>
-      <c r="J45" s="3">
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="3">
         <f t="shared" si="13"/>
-        <v>-2.2777130857917182E-31</v>
-      </c>
-    </row>
-    <row r="46" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D46" s="3">
-        <f t="shared" si="14"/>
         <v>2.5000000000000605E-2</v>
       </c>
-      <c r="E46" s="3">
+      <c r="C46" s="3">
         <f t="shared" si="8"/>
         <v>6.052807617187789E-4</v>
       </c>
-      <c r="F46" s="3">
+      <c r="D46" s="3">
         <f t="shared" si="9"/>
         <v>3.8062133789064313E-4</v>
       </c>
+      <c r="E46" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B46^2 +  (8)/(32*phi + 8) * B46 ^4</f>
+        <v>0.99875039062499993</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="10"/>
+        <v>6.2421899414064008E-2</v>
+      </c>
       <c r="G46" s="3">
-        <f t="shared" si="10"/>
-        <v>0.9999999995117187</v>
+        <f t="shared" si="11"/>
+        <v>6.4432861328128166E-4</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="11"/>
-        <v>6.2421899414064008E-2</v>
-      </c>
-      <c r="I46" s="3">
         <f t="shared" si="12"/>
-        <v>6.4432861328128166E-4</v>
+        <v>-4.0014038085939459E-4</v>
       </c>
       <c r="J46" s="3">
+        <f t="shared" si="5"/>
+        <v>0.99935567138671866</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="3">
         <f t="shared" si="13"/>
-        <v>-4.0014038085939459E-4</v>
-      </c>
-    </row>
-    <row r="47" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D47" s="3">
-        <f t="shared" si="14"/>
         <v>5.0000000000000606E-2</v>
       </c>
-      <c r="E47" s="3">
+      <c r="C47" s="3">
         <f t="shared" si="8"/>
         <v>2.3408593750000547E-3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="D47" s="3">
         <f t="shared" si="9"/>
         <v>1.4806640625000349E-3</v>
       </c>
+      <c r="E47" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B47^2 +  (8)/(32*phi + 8) * B47 ^4</f>
+        <v>0.99500624999999987</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="10"/>
+        <v>0.1243757812500015</v>
+      </c>
       <c r="G47" s="3">
-        <f t="shared" si="10"/>
-        <v>0.99999996874999997</v>
+        <f t="shared" si="11"/>
+        <v>2.6528906250000667E-3</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="11"/>
-        <v>0.1243757812500015</v>
-      </c>
-      <c r="I47" s="3">
         <f t="shared" si="12"/>
-        <v>2.6528906250000667E-3</v>
+        <v>-1.6365234375000407E-3</v>
       </c>
       <c r="J47" s="3">
+        <f t="shared" si="5"/>
+        <v>0.99734710937499993</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="3">
         <f t="shared" si="13"/>
-        <v>-1.6365234375000407E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D48" s="3">
-        <f t="shared" si="14"/>
         <v>7.5000000000000608E-2</v>
       </c>
-      <c r="E48" s="3">
+      <c r="C48" s="3">
         <f t="shared" si="8"/>
         <v>5.0836157226563277E-3</v>
       </c>
-      <c r="F48" s="3">
+      <c r="D48" s="3">
         <f t="shared" si="9"/>
         <v>3.2336608886719249E-3</v>
       </c>
+      <c r="E48" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B48^2 +  (8)/(32*phi + 8) * B48 ^4</f>
+        <v>0.98878164062499985</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="10"/>
+        <v>0.18539655761718898</v>
+      </c>
       <c r="G48" s="3">
-        <f t="shared" si="10"/>
-        <v>0.99999964404296871</v>
+        <f t="shared" si="11"/>
+        <v>6.1347436523438532E-3</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="11"/>
-        <v>0.18539655761718898</v>
-      </c>
-      <c r="I48" s="3">
         <f t="shared" si="12"/>
-        <v>6.1347436523438532E-3</v>
+        <v>-3.7580383300781874E-3</v>
       </c>
       <c r="J48" s="3">
+        <f t="shared" si="5"/>
+        <v>0.99386525634765621</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="3">
         <f t="shared" si="13"/>
-        <v>-3.7580383300781874E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D49" s="3">
-        <f t="shared" si="14"/>
         <v>0.10000000000000062</v>
       </c>
-      <c r="E49" s="3">
+      <c r="C49" s="3">
         <f t="shared" si="8"/>
         <v>8.7075000000000988E-3</v>
       </c>
-      <c r="F49" s="3">
+      <c r="D49" s="3">
         <f t="shared" si="9"/>
         <v>5.5687500000000632E-3</v>
       </c>
+      <c r="E49" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B49^2 +  (8)/(32*phi + 8) * B49 ^4</f>
+        <v>0.98009999999999975</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="10"/>
+        <v>0.24502500000000146</v>
+      </c>
       <c r="G49" s="3">
-        <f t="shared" si="10"/>
-        <v>0.99999800000000005</v>
+        <f t="shared" si="11"/>
+        <v>1.1192500000000145E-2</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="11"/>
-        <v>0.24502500000000146</v>
-      </c>
-      <c r="I49" s="3">
         <f t="shared" si="12"/>
-        <v>1.1192500000000145E-2</v>
+        <v>-6.8062500000000865E-3</v>
       </c>
       <c r="J49" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98880749999999984</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="3">
         <f t="shared" si="13"/>
-        <v>-6.8062500000000865E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D50" s="3">
-        <f t="shared" si="14"/>
         <v>0.12500000000000061</v>
       </c>
-      <c r="E50" s="3">
+      <c r="C50" s="3">
         <f t="shared" si="8"/>
         <v>1.3084411621093866E-2</v>
       </c>
-      <c r="F50" s="3">
+      <c r="D50" s="3">
         <f t="shared" si="9"/>
         <v>8.4114074707031996E-3</v>
       </c>
+      <c r="E50" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B50^2 +  (8)/(32*phi + 8) * B50 ^4</f>
+        <v>0.96899414062499967</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="10"/>
+        <v>0.30281066894531389</v>
+      </c>
       <c r="G50" s="3">
-        <f t="shared" si="10"/>
-        <v>0.99999237060546875</v>
+        <f t="shared" si="11"/>
+        <v>1.7921447753906434E-2</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="11"/>
-        <v>0.30281066894531389</v>
-      </c>
-      <c r="I50" s="3">
         <f t="shared" si="12"/>
-        <v>1.7921447753906434E-2</v>
+        <v>-1.0814666748046984E-2</v>
       </c>
       <c r="J50" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98207855224609353</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="3">
         <f t="shared" si="13"/>
-        <v>-1.0814666748046984E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D51" s="3">
-        <f t="shared" si="14"/>
         <v>0.15000000000000061</v>
       </c>
-      <c r="E51" s="3">
+      <c r="C51" s="3">
         <f t="shared" si="8"/>
         <v>1.8085078125000129E-2</v>
       </c>
-      <c r="F51" s="3">
+      <c r="D51" s="3">
         <f t="shared" si="9"/>
         <v>1.1684179687500084E-2</v>
       </c>
+      <c r="E51" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B51^2 +  (8)/(32*phi + 8) * B51 ^4</f>
+        <v>0.95550624999999967</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="10"/>
+        <v>0.35831484375000133</v>
+      </c>
       <c r="G51" s="3">
-        <f t="shared" si="10"/>
-        <v>0.99997721875000001</v>
+        <f t="shared" si="11"/>
+        <v>2.640867187500023E-2</v>
       </c>
       <c r="H51" s="3">
-        <f t="shared" si="11"/>
-        <v>0.35831484375000133</v>
-      </c>
-      <c r="I51" s="3">
         <f t="shared" si="12"/>
-        <v>2.640867187500023E-2</v>
+        <v>-1.5808007812500136E-2</v>
       </c>
       <c r="J51" s="3">
+        <f t="shared" si="5"/>
+        <v>0.97359132812499982</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="3">
         <f t="shared" si="13"/>
-        <v>-1.5808007812500136E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D52" s="3">
-        <f t="shared" si="14"/>
         <v>0.1750000000000006</v>
       </c>
-      <c r="E52" s="3">
+      <c r="C52" s="3">
         <f t="shared" si="8"/>
         <v>2.3579934082031389E-2</v>
       </c>
-      <c r="F52" s="3">
+      <c r="D52" s="3">
         <f t="shared" si="9"/>
         <v>1.5307415771484468E-2</v>
       </c>
+      <c r="E52" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B52^2 +  (8)/(32*phi + 8) * B52 ^4</f>
+        <v>0.93968789062499958</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="10"/>
+        <v>0.41111345214843875</v>
+      </c>
       <c r="G52" s="3">
-        <f t="shared" si="10"/>
-        <v>0.99994255419921874</v>
+        <f t="shared" si="11"/>
+        <v>3.6732175292969023E-2</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="11"/>
-        <v>0.41111345214843875</v>
-      </c>
-      <c r="I52" s="3">
         <f t="shared" si="12"/>
-        <v>3.6732175292969023E-2</v>
+        <v>-2.1801470947265783E-2</v>
       </c>
       <c r="J52" s="3">
+        <f t="shared" si="5"/>
+        <v>0.96326782470703098</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="3">
         <f t="shared" si="13"/>
-        <v>-2.1801470947265783E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D53" s="3">
-        <f t="shared" si="14"/>
         <v>0.20000000000000059</v>
       </c>
-      <c r="E53" s="3">
+      <c r="C53" s="3">
         <f t="shared" si="8"/>
         <v>2.9440000000000143E-2</v>
       </c>
-      <c r="F53" s="3">
+      <c r="D53" s="3">
         <f t="shared" si="9"/>
         <v>1.9200000000000092E-2</v>
       </c>
+      <c r="E53" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B53^2 +  (8)/(32*phi + 8) * B53 ^4</f>
+        <v>0.92159999999999953</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="10"/>
+        <v>0.4608000000000011</v>
+      </c>
       <c r="G53" s="3">
-        <f t="shared" si="10"/>
-        <v>0.99987199999999998</v>
+        <f t="shared" si="11"/>
+        <v>4.8960000000000309E-2</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="11"/>
-        <v>0.4608000000000011</v>
-      </c>
-      <c r="I53" s="3">
         <f t="shared" si="12"/>
-        <v>4.8960000000000309E-2</v>
+        <v>-2.880000000000018E-2</v>
       </c>
       <c r="J53" s="3">
+        <f t="shared" si="5"/>
+        <v>0.95103999999999966</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="3">
         <f t="shared" si="13"/>
-        <v>-2.880000000000018E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D54" s="3">
-        <f t="shared" si="14"/>
         <v>0.22500000000000059</v>
       </c>
-      <c r="E54" s="3">
+      <c r="C54" s="3">
         <f t="shared" si="8"/>
         <v>3.5537761230468902E-2</v>
       </c>
-      <c r="F54" s="3">
+      <c r="D54" s="3">
         <f t="shared" si="9"/>
         <v>2.3280084228515723E-2</v>
       </c>
+      <c r="E54" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B54^2 +  (8)/(32*phi + 8) * B54 ^4</f>
+        <v>0.90131289062499953</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="10"/>
+        <v>0.50698850097656345</v>
+      </c>
       <c r="G54" s="3">
-        <f t="shared" si="10"/>
-        <v>0.99974050732421871</v>
+        <f t="shared" si="11"/>
+        <v>6.3149348144531603E-2</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="11"/>
-        <v>0.50698850097656345</v>
-      </c>
-      <c r="I54" s="3">
         <f t="shared" si="12"/>
-        <v>6.3149348144531603E-2</v>
+        <v>-3.6797552490234572E-2</v>
       </c>
       <c r="J54" s="3">
+        <f t="shared" si="5"/>
+        <v>0.93685065185546845</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="3">
         <f t="shared" si="13"/>
-        <v>-3.6797552490234572E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D55" s="3">
-        <f t="shared" si="14"/>
         <v>0.25000000000000061</v>
       </c>
-      <c r="E55" s="3">
+      <c r="C55" s="3">
         <f t="shared" si="8"/>
         <v>4.1748046875000153E-2</v>
       </c>
-      <c r="F55" s="3">
+      <c r="D55" s="3">
         <f t="shared" si="9"/>
         <v>2.7465820312500108E-2</v>
       </c>
+      <c r="E55" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B55^2 +  (8)/(32*phi + 8) * B55 ^4</f>
+        <v>0.87890624999999933</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="10"/>
+        <v>0.549316406250001</v>
+      </c>
       <c r="G55" s="3">
-        <f t="shared" si="10"/>
-        <v>0.99951171875</v>
+        <f t="shared" si="11"/>
+        <v>7.9345703125000416E-2</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="11"/>
-        <v>0.549316406250001</v>
-      </c>
-      <c r="I55" s="3">
         <f t="shared" si="12"/>
-        <v>7.9345703125000416E-2</v>
+        <v>-4.5776367187500236E-2</v>
       </c>
       <c r="J55" s="3">
+        <f t="shared" si="5"/>
+        <v>0.92065429687499944</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="3">
         <f t="shared" si="13"/>
-        <v>-4.5776367187500236E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D56" s="3">
-        <f t="shared" si="14"/>
         <v>0.27500000000000063</v>
       </c>
-      <c r="E56" s="3">
+      <c r="C56" s="3">
         <f t="shared" si="8"/>
         <v>4.7948908691406403E-2</v>
       </c>
-      <c r="F56" s="3">
+      <c r="D56" s="3">
         <f t="shared" si="9"/>
         <v>3.1676092529296984E-2</v>
       </c>
+      <c r="E56" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B56^2 +  (8)/(32*phi + 8) * B56 ^4</f>
+        <v>0.85446914062499935</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="10"/>
+        <v>0.58744753417968842</v>
+      </c>
       <c r="G56" s="3">
-        <f t="shared" si="10"/>
-        <v>0.99913497998046874</v>
+        <f t="shared" si="11"/>
+        <v>9.7581950683594237E-2</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" si="11"/>
-        <v>0.58744753417968842</v>
-      </c>
-      <c r="I56" s="3">
         <f t="shared" si="12"/>
-        <v>9.7581950683594237E-2</v>
+        <v>-5.5706231689453378E-2</v>
       </c>
       <c r="J56" s="3">
+        <f t="shared" si="5"/>
+        <v>0.90241804931640579</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="3">
         <f t="shared" si="13"/>
-        <v>-5.5706231689453378E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D57" s="3">
-        <f t="shared" si="14"/>
         <v>0.30000000000000066</v>
       </c>
-      <c r="E57" s="3">
+      <c r="C57" s="3">
         <f t="shared" si="8"/>
         <v>5.4022500000000154E-2</v>
       </c>
-      <c r="F57" s="3">
+      <c r="D57" s="3">
         <f t="shared" si="9"/>
         <v>3.5831250000000113E-2</v>
       </c>
+      <c r="E57" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B57^2 +  (8)/(32*phi + 8) * B57 ^4</f>
+        <v>0.82809999999999928</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="10"/>
+        <v>0.62107500000000082</v>
+      </c>
       <c r="G57" s="3">
-        <f t="shared" si="10"/>
-        <v>0.99854199999999993</v>
+        <f t="shared" si="11"/>
+        <v>0.11787750000000057</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" si="11"/>
-        <v>0.62107500000000082</v>
-      </c>
-      <c r="I57" s="3">
         <f t="shared" si="12"/>
-        <v>0.11787750000000057</v>
+        <v>-6.6543750000000304E-2</v>
       </c>
       <c r="J57" s="3">
+        <f t="shared" si="5"/>
+        <v>0.88212249999999948</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="3">
         <f t="shared" si="13"/>
-        <v>-6.6543750000000304E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D58" s="3">
-        <f t="shared" si="14"/>
         <v>0.32500000000000068</v>
       </c>
-      <c r="E58" s="3">
+      <c r="C58" s="3">
         <f t="shared" si="8"/>
         <v>5.9855954589843899E-2</v>
       </c>
-      <c r="F58" s="3">
+      <c r="D58" s="3">
         <f t="shared" si="9"/>
         <v>3.9853839111328226E-2</v>
       </c>
+      <c r="E58" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B58^2 +  (8)/(32*phi + 8) * B58 ^4</f>
+        <v>0.79990664062499928</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="10"/>
+        <v>0.64992414550781319</v>
+      </c>
       <c r="G58" s="3">
-        <f t="shared" si="10"/>
-        <v>0.99764315966796868</v>
+        <f t="shared" si="11"/>
+        <v>0.14023740478515689</v>
       </c>
       <c r="H58" s="3">
-        <f t="shared" si="11"/>
-        <v>0.64992414550781319</v>
-      </c>
-      <c r="I58" s="3">
         <f t="shared" si="12"/>
-        <v>0.14023740478515689</v>
+        <v>-7.8231610107422203E-2</v>
       </c>
       <c r="J58" s="3">
+        <f t="shared" si="5"/>
+        <v>0.85976259521484322</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="3">
         <f t="shared" si="13"/>
-        <v>-7.8231610107422203E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D59" s="3">
-        <f t="shared" si="14"/>
         <v>0.3500000000000007</v>
       </c>
-      <c r="E59" s="3">
+      <c r="C59" s="3">
         <f t="shared" si="8"/>
         <v>6.5342265625000145E-2</v>
       </c>
-      <c r="F59" s="3">
+      <c r="D59" s="3">
         <f t="shared" si="9"/>
         <v>4.3669335937500095E-2</v>
       </c>
+      <c r="E59" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B59^2 +  (8)/(32*phi + 8) * B59 ^4</f>
+        <v>0.77000624999999912</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="10"/>
+        <v>0.67375546875000059</v>
+      </c>
       <c r="G59" s="3">
-        <f t="shared" si="10"/>
-        <v>0.99632346875</v>
+        <f t="shared" si="11"/>
+        <v>0.16465148437500071</v>
       </c>
       <c r="H59" s="3">
-        <f t="shared" si="11"/>
-        <v>0.67375546875000059</v>
-      </c>
-      <c r="I59" s="3">
         <f t="shared" si="12"/>
-        <v>0.16465148437500071</v>
+        <v>-9.0697851562500348E-2</v>
       </c>
       <c r="J59" s="3">
+        <f t="shared" si="5"/>
+        <v>0.83534851562499923</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="3">
         <f t="shared" si="13"/>
-        <v>-9.0697851562500348E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D60" s="3">
-        <f t="shared" si="14"/>
         <v>0.37500000000000072</v>
       </c>
-      <c r="E60" s="3">
+      <c r="C60" s="3">
         <f t="shared" si="8"/>
         <v>7.0381164550781389E-2</v>
       </c>
-      <c r="F60" s="3">
+      <c r="D60" s="3">
         <f t="shared" si="9"/>
         <v>4.7206878662109472E-2</v>
       </c>
+      <c r="E60" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B60^2 +  (8)/(32*phi + 8) * B60 ^4</f>
+        <v>0.738525390624999</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="10"/>
+        <v>0.69236755371093794</v>
+      </c>
       <c r="G60" s="3">
-        <f t="shared" si="10"/>
-        <v>0.99443817138671864</v>
+        <f t="shared" si="11"/>
+        <v>0.19109344482421955</v>
       </c>
       <c r="H60" s="3">
-        <f t="shared" si="11"/>
-        <v>0.69236755371093794</v>
-      </c>
-      <c r="I60" s="3">
         <f t="shared" si="12"/>
-        <v>0.19109344482421955</v>
+        <v>-0.10385513305664103</v>
       </c>
       <c r="J60" s="3">
+        <f t="shared" si="5"/>
+        <v>0.80890655517578036</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="3">
         <f t="shared" si="13"/>
-        <v>-0.10385513305664103</v>
-      </c>
-    </row>
-    <row r="61" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D61" s="3">
-        <f t="shared" si="14"/>
         <v>0.40000000000000074</v>
       </c>
-      <c r="E61" s="3">
+      <c r="C61" s="3">
         <f t="shared" si="8"/>
         <v>7.4880000000000141E-2</v>
       </c>
-      <c r="F61" s="3">
+      <c r="D61" s="3">
         <f t="shared" si="9"/>
         <v>5.0400000000000091E-2</v>
       </c>
+      <c r="E61" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B61^2 +  (8)/(32*phi + 8) * B61 ^4</f>
+        <v>0.70559999999999901</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" si="10"/>
+        <v>0.70560000000000034</v>
+      </c>
       <c r="G61" s="3">
-        <f t="shared" si="10"/>
-        <v>0.99180799999999991</v>
+        <f t="shared" si="11"/>
+        <v>0.21952000000000085</v>
       </c>
       <c r="H61" s="3">
-        <f t="shared" si="11"/>
-        <v>0.70560000000000034</v>
-      </c>
-      <c r="I61" s="3">
         <f t="shared" si="12"/>
-        <v>0.21952000000000085</v>
+        <v>-0.11760000000000038</v>
       </c>
       <c r="J61" s="3">
+        <f t="shared" si="5"/>
+        <v>0.78047999999999917</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="3">
         <f t="shared" si="13"/>
-        <v>-0.11760000000000038</v>
-      </c>
-    </row>
-    <row r="62" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D62" s="3">
-        <f t="shared" si="14"/>
         <v>0.42500000000000077</v>
       </c>
-      <c r="E62" s="3">
+      <c r="C62" s="3">
         <f t="shared" si="8"/>
         <v>7.8754616699218877E-2</v>
       </c>
-      <c r="F62" s="3">
+      <c r="D62" s="3">
         <f t="shared" si="9"/>
         <v>5.3187359619140721E-2</v>
       </c>
+      <c r="E62" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B62^2 +  (8)/(32*phi + 8) * B62 ^4</f>
+        <v>0.67137539062499896</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" si="10"/>
+        <v>0.7133363525390628</v>
+      </c>
       <c r="G62" s="3">
-        <f t="shared" si="10"/>
-        <v>0.98821407763671865</v>
+        <f t="shared" si="11"/>
+        <v>0.24986999267578217</v>
       </c>
       <c r="H62" s="3">
-        <f t="shared" si="11"/>
-        <v>0.7133363525390628</v>
-      </c>
-      <c r="I62" s="3">
         <f t="shared" si="12"/>
-        <v>0.24986999267578217</v>
+        <v>-0.13181215209960981</v>
       </c>
       <c r="J62" s="3">
+        <f t="shared" si="5"/>
+        <v>0.75013000732421786</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="3">
         <f t="shared" si="13"/>
-        <v>-0.13181215209960981</v>
-      </c>
-    </row>
-    <row r="63" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D63" s="3">
-        <f t="shared" si="14"/>
         <v>0.45000000000000079</v>
       </c>
-      <c r="E63" s="3">
+      <c r="C63" s="3">
         <f t="shared" si="8"/>
         <v>8.1930234375000077E-2</v>
       </c>
-      <c r="F63" s="3">
+      <c r="D63" s="3">
         <f t="shared" si="9"/>
         <v>5.551347656250006E-2</v>
       </c>
+      <c r="E63" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B63^2 +  (8)/(32*phi + 8) * B63 ^4</f>
+        <v>0.63600624999999888</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="10"/>
+        <v>0.71550703125000004</v>
+      </c>
       <c r="G63" s="3">
-        <f t="shared" si="10"/>
-        <v>0.98339246874999986</v>
+        <f t="shared" si="11"/>
+        <v>0.28206351562500109</v>
       </c>
       <c r="H63" s="3">
-        <f t="shared" si="11"/>
-        <v>0.71550703125000004</v>
-      </c>
-      <c r="I63" s="3">
         <f t="shared" si="12"/>
-        <v>0.28206351562500109</v>
+        <v>-0.14635371093750044</v>
       </c>
       <c r="J63" s="3">
+        <f t="shared" si="5"/>
+        <v>0.71793648437499891</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="3">
         <f t="shared" si="13"/>
-        <v>-0.14635371093750044</v>
-      </c>
-    </row>
-    <row r="64" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D64" s="3">
-        <f t="shared" si="14"/>
         <v>0.47500000000000081</v>
       </c>
-      <c r="E64" s="3">
+      <c r="C64" s="3">
         <f t="shared" si="8"/>
         <v>8.4342326660156314E-2</v>
       </c>
-      <c r="F64" s="3">
+      <c r="D64" s="3">
         <f t="shared" si="9"/>
         <v>5.7329461669921915E-2</v>
       </c>
+      <c r="E64" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B64^2 +  (8)/(32*phi + 8) * B64 ^4</f>
+        <v>0.5996566406249989</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="10"/>
+        <v>0.71209226074218723</v>
+      </c>
       <c r="G64" s="3">
-        <f t="shared" si="10"/>
-        <v>0.97702837841796852</v>
+        <f t="shared" si="11"/>
+        <v>0.31600103271484487</v>
       </c>
       <c r="H64" s="3">
-        <f t="shared" si="11"/>
-        <v>0.71209226074218723</v>
-      </c>
-      <c r="I64" s="3">
         <f t="shared" si="12"/>
-        <v>0.31600103271484487</v>
+        <v>-0.16106848754882863</v>
       </c>
       <c r="J64" s="3">
+        <f t="shared" si="5"/>
+        <v>0.68399896728515519</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B65" s="3">
         <f t="shared" si="13"/>
-        <v>-0.16106848754882863</v>
-      </c>
-    </row>
-    <row r="65" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D65" s="3">
-        <f t="shared" si="14"/>
         <v>0.50000000000000078</v>
       </c>
-      <c r="E65" s="3">
+      <c r="C65" s="3">
         <f t="shared" si="8"/>
         <v>8.5937500000000042E-2</v>
       </c>
-      <c r="F65" s="3">
+      <c r="D65" s="3">
         <f t="shared" si="9"/>
         <v>5.8593750000000049E-2</v>
       </c>
+      <c r="E65" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B65^2 +  (8)/(32*phi + 8) * B65 ^4</f>
+        <v>0.56249999999999889</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" si="10"/>
+        <v>0.70312499999999978</v>
+      </c>
       <c r="G65" s="3">
-        <f t="shared" si="10"/>
-        <v>0.96874999999999967</v>
+        <f t="shared" si="11"/>
+        <v>0.35156250000000117</v>
       </c>
       <c r="H65" s="3">
-        <f t="shared" si="11"/>
-        <v>0.70312499999999978</v>
-      </c>
-      <c r="I65" s="3">
         <f t="shared" si="12"/>
-        <v>0.35156250000000117</v>
+        <v>-0.17578125000000044</v>
       </c>
       <c r="J65" s="3">
+        <f t="shared" si="5"/>
+        <v>0.64843749999999889</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B66" s="3">
         <f t="shared" si="13"/>
-        <v>-0.17578125000000044</v>
-      </c>
-    </row>
-    <row r="66" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D66" s="3">
-        <f t="shared" si="14"/>
         <v>0.5250000000000008</v>
       </c>
-      <c r="E66" s="3">
+      <c r="C66" s="3">
         <f t="shared" si="8"/>
         <v>8.6674372558593782E-2</v>
       </c>
-      <c r="F66" s="3">
+      <c r="D66" s="3">
         <f t="shared" si="9"/>
         <v>5.9272833251953157E-2</v>
       </c>
+      <c r="E66" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B66^2 +  (8)/(32*phi + 8) * B66 ^4</f>
+        <v>0.5247191406249988</v>
+      </c>
+      <c r="F66" s="3">
+        <f t="shared" si="10"/>
+        <v>0.68869387207031207</v>
+      </c>
       <c r="G66" s="3">
-        <f t="shared" si="10"/>
-        <v>0.95812201123046836</v>
+        <f t="shared" si="11"/>
+        <v>0.38860648681640741</v>
       </c>
       <c r="H66" s="3">
-        <f t="shared" si="11"/>
-        <v>0.68869387207031207</v>
-      </c>
-      <c r="I66" s="3">
         <f t="shared" si="12"/>
-        <v>0.38860648681640741</v>
+        <v>-0.19029699096679734</v>
       </c>
       <c r="J66" s="3">
+        <f t="shared" si="5"/>
+        <v>0.61139351318359259</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B67" s="3">
         <f t="shared" si="13"/>
-        <v>-0.19029699096679734</v>
-      </c>
-    </row>
-    <row r="67" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D67" s="3">
-        <f t="shared" si="14"/>
         <v>0.55000000000000082</v>
       </c>
-      <c r="E67" s="3">
+      <c r="C67" s="3">
         <f t="shared" si="8"/>
         <v>8.6524453124999956E-2</v>
       </c>
-      <c r="F67" s="3">
+      <c r="D67" s="3">
         <f t="shared" si="9"/>
         <v>5.9341992187499977E-2</v>
       </c>
+      <c r="E67" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B67^2 +  (8)/(32*phi + 8) * B67 ^4</f>
+        <v>0.48650624999999881</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" si="10"/>
+        <v>0.66894609374999925</v>
+      </c>
       <c r="G67" s="3">
-        <f t="shared" si="10"/>
-        <v>0.9446387187499995</v>
+        <f t="shared" si="11"/>
+        <v>0.42696929687500124</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" si="11"/>
-        <v>0.66894609374999925</v>
-      </c>
-      <c r="I67" s="3">
         <f t="shared" si="12"/>
-        <v>0.42696929687500124</v>
+        <v>-0.20440019531250045</v>
       </c>
       <c r="J67" s="3">
+        <f t="shared" si="5"/>
+        <v>0.57303070312499882</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B68" s="3">
         <f t="shared" si="13"/>
-        <v>-0.20440019531250045</v>
-      </c>
-    </row>
-    <row r="68" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D68" s="3">
-        <f t="shared" si="14"/>
         <v>0.57500000000000084</v>
       </c>
-      <c r="E68" s="3">
+      <c r="C68" s="3">
         <f t="shared" si="8"/>
         <v>8.5473020019531193E-2</v>
       </c>
-      <c r="F68" s="3">
+      <c r="D68" s="3">
         <f t="shared" si="9"/>
         <v>5.8786029052734327E-2</v>
       </c>
+      <c r="E68" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B68^2 +  (8)/(32*phi + 8) * B68 ^4</f>
+        <v>0.44806289062499871</v>
+      </c>
+      <c r="F68" s="3">
+        <f t="shared" si="10"/>
+        <v>0.64409040527343675</v>
+      </c>
       <c r="G68" s="3">
-        <f t="shared" si="10"/>
-        <v>0.92771685107421809</v>
+        <f t="shared" si="11"/>
+        <v>0.46646408935547001</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="11"/>
-        <v>0.64409040527343675</v>
-      </c>
-      <c r="I68" s="3">
         <f t="shared" si="12"/>
-        <v>0.46646408935547001</v>
+        <v>-0.21785410766601601</v>
       </c>
       <c r="J68" s="3">
+        <f t="shared" si="5"/>
+        <v>0.53353591064452988</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B69" s="3">
         <f t="shared" si="13"/>
-        <v>-0.21785410766601601</v>
+        <v>0.60000000000000087</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" ref="C69:C85" si="14">(-40*phi^2 - 10*phi) / (80*phi^2 - 20*phi - 4) * B69   + (16*phi + 8 )/(32*phi + 8) * B69^2 +
+    (40*phi + 10 )/(160*phi^2 - 40*phi - 8) * B69^3 +  (- 4 )/(32*phi + 8) * B69^4 +
+    (- 6 )/(160*phi^2 - 40*phi - 8) * B69^5</f>
+        <v>8.35199999999999E-2</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" ref="D69:D85" si="15" xml:space="preserve"> (-L*phi) / (80*phi^2 - 20*phi - 4) * B69 +
+            (L)/(32*phi + 8) * B69^2 +
+            (L)/(160*phi^2 - 40*phi - 8) * B69^3 +
+            (-L)/(32*phi + 8) * B69^4 +
+            (2*L*phi - L)/(160*phi^2 - 40*phi - 8) * B69^5</f>
+        <v>5.7599999999999936E-2</v>
+      </c>
+      <c r="E69" s="3">
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B69^2 +  (8)/(32*phi + 8) * B69 ^4</f>
+        <v>0.40959999999999863</v>
+      </c>
+      <c r="F69" s="3">
+        <f t="shared" ref="F69:F85" si="16">(-18*L*phi -2*L ) / (80*phi^2 - 20*phi - 4) * B69 +
+         (40*L*phi + 8*L)/(160*phi^2 - 40*phi - 8) * B69^3 +
+         (- 4*L*phi  - 4*L)/(160*phi^2 - 40*phi - 8) * B69^5</f>
+        <v>0.61439999999999884</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" ref="G69:G85" si="17">(40*phi^2 + 10*phi) / (80*phi^2 - 20*phi - 4) * B69 +
+     (16*phi + 8)/(32*phi + 8) * B69^2 +
+     (- 40*phi - 10)/(160*phi^2 - 40*phi - 8) * B69^3 +
+     (- 4)/(32*phi + 8) * B69^4 +
+     (6)/(160*phi^2 - 40*phi - 8) * B69^5</f>
+        <v>0.50688000000000144</v>
+      </c>
+      <c r="H69" s="3">
+        <f t="shared" ref="H69:H85" si="18" xml:space="preserve"> (- L*phi ) / (80*phi^2 - 20*phi - 4) * B69 +
+         (- L)/(32*phi + 8) * B69^2 +
+         (L)/(160*phi^2 - 40*phi - 8) * B69^3 +
+         (L)/(32*phi + 8) * B69^4 +
+         (2*L*phi - L)/(160*phi^2 - 40*phi - 8) * B69^5</f>
+        <v>-0.23040000000000041</v>
+      </c>
+      <c r="J69" s="3">
+        <f t="shared" si="5"/>
+        <v>0.49311999999999856</v>
       </c>
     </row>
-    <row r="69" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D69" s="3">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B70" s="3">
+        <f t="shared" si="13"/>
+        <v>0.62500000000000089</v>
+      </c>
+      <c r="C70" s="3">
         <f t="shared" si="14"/>
-        <v>0.60000000000000087</v>
-      </c>
-      <c r="E69" s="3">
-        <f t="shared" ref="E69:E100" si="15">(-40*phi^2 - 10*phi) / (80*phi^2 - 20*phi - 4) * D69   + (16*phi + 8 )/(32*phi + 8) * D69^2 +
-    (40*phi + 10 )/(160*phi^2 - 40*phi - 8) * D69^3 +  (- 4 )/(32*phi + 8) * D69^4 +
-    (- 6 )/(160*phi^2 - 40*phi - 8) * D69^5</f>
-        <v>8.35199999999999E-2</v>
-      </c>
-      <c r="F69" s="3">
-        <f t="shared" ref="F69:F85" si="16" xml:space="preserve"> (-L*phi) / (80*phi^2 - 20*phi - 4) * D69 +
-            (L)/(32*phi + 8) * D69^2 +
-            (L)/(160*phi^2 - 40*phi - 8) * D69^3 +
-            (-L)/(32*phi + 8) * D69^4 +
-            (2*L*phi - L)/(160*phi^2 - 40*phi - 8) * D69^5</f>
-        <v>5.7599999999999936E-2</v>
-      </c>
-      <c r="G69" s="3">
-        <f t="shared" ref="G69:G85" si="17">1 + (- 32*phi  - 16 )/(32*phi + 8) * D69^2 * (8)/(32*phi + 8) * D69 ^4</f>
-        <v>0.90668799999999916</v>
-      </c>
-      <c r="H69" s="3">
-        <f t="shared" ref="H69:H85" si="18">(-18*L*phi -2*L ) / (80*phi^2 - 20*phi - 4) * D69 +
-         (40*L*phi + 8*L)/(160*phi^2 - 40*phi - 8) * D69^3 +
-         (- 4*L*phi  - 4*L)/(160*phi^2 - 40*phi - 8) * D69^5</f>
-        <v>0.61439999999999884</v>
-      </c>
-      <c r="I69" s="3">
-        <f t="shared" ref="I69:I85" si="19">(40*phi^2 + 10*phi) / (80*phi^2 - 20*phi - 4) * D69 +
-     (16*phi + 8)/(32*phi + 8) * D69^2 +
-     (- 40*phi - 10)/(160*phi^2 - 40*phi - 8) * D69^3 +
-     (- 4)/(32*phi + 8) * D69^4 +
-     (6)/(160*phi^2 - 40*phi - 8) * D69^5</f>
-        <v>0.50688000000000144</v>
-      </c>
-      <c r="J69" s="3">
-        <f t="shared" ref="J69:J85" si="20" xml:space="preserve"> (- L*phi ) / (80*phi^2 - 20*phi - 4) * D69 +
-         (- L)/(32*phi + 8) * D69^2 +
-         (L)/(160*phi^2 - 40*phi - 8) * D69^3 +
-         (L)/(32*phi + 8) * D69^4 +
-         (2*L*phi - L)/(160*phi^2 - 40*phi - 8) * D69^5</f>
-        <v>-0.23040000000000041</v>
-      </c>
-    </row>
-    <row r="70" spans="4:10" x14ac:dyDescent="0.2">
+        <v>8.0680847167968611E-2</v>
+      </c>
       <c r="D70" s="3">
-        <f t="shared" si="14"/>
-        <v>0.62500000000000089</v>
+        <f t="shared" si="15"/>
+        <v>5.5789947509765535E-2</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" si="15"/>
-        <v>8.0680847167968611E-2</v>
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B70^2 +  (8)/(32*phi + 8) * B70 ^4</f>
+        <v>0.37133789062499867</v>
       </c>
       <c r="F70" s="3">
         <f t="shared" si="16"/>
-        <v>5.5789947509765535E-2</v>
+        <v>0.58021545410156106</v>
       </c>
       <c r="G70" s="3">
         <f t="shared" si="17"/>
-        <v>0.88079071044921775</v>
+        <v>0.54798126220703269</v>
       </c>
       <c r="H70" s="3">
         <f t="shared" si="18"/>
-        <v>0.58021545410156106</v>
-      </c>
-      <c r="I70" s="3">
-        <f t="shared" si="19"/>
-        <v>0.54798126220703269</v>
+        <v>-0.24175643920898474</v>
       </c>
       <c r="J70" s="3">
-        <f t="shared" si="20"/>
-        <v>-0.24175643920898474</v>
+        <f t="shared" ref="J70:J85" si="19">C70*T$3+D70*T$4+E70*T$5+F70*T$6+G70*T$7+H70*T$8</f>
+        <v>0.45201873779296731</v>
       </c>
     </row>
-    <row r="71" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B71" s="3">
+        <f t="shared" si="13"/>
+        <v>0.65000000000000091</v>
+      </c>
+      <c r="C71" s="3">
+        <f t="shared" si="14"/>
+        <v>7.6987421874999837E-2</v>
+      </c>
       <c r="D71" s="3">
-        <f t="shared" si="14"/>
-        <v>0.65000000000000091</v>
+        <f t="shared" si="15"/>
+        <v>5.3373632812499905E-2</v>
       </c>
       <c r="E71" s="3">
-        <f t="shared" si="15"/>
-        <v>7.6987421874999837E-2</v>
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B71^2 +  (8)/(32*phi + 8) * B71 ^4</f>
+        <v>0.33350624999999862</v>
       </c>
       <c r="F71" s="3">
         <f t="shared" si="16"/>
-        <v>5.3373632812499905E-2</v>
+        <v>0.54194765624999841</v>
       </c>
       <c r="G71" s="3">
         <f t="shared" si="17"/>
-        <v>0.84916221874999875</v>
+        <v>0.58950632812500159</v>
       </c>
       <c r="H71" s="3">
         <f t="shared" si="18"/>
-        <v>0.54194765624999841</v>
-      </c>
-      <c r="I71" s="3">
+        <v>-0.25161855468750038</v>
+      </c>
+      <c r="J71" s="3">
         <f t="shared" si="19"/>
-        <v>0.58950632812500159</v>
-      </c>
-      <c r="J71" s="3">
-        <f t="shared" si="20"/>
-        <v>-0.25161855468750038</v>
+        <v>0.41049367187499847</v>
       </c>
     </row>
-    <row r="72" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B72" s="3">
+        <f t="shared" si="13"/>
+        <v>0.67500000000000093</v>
+      </c>
+      <c r="C72" s="3">
+        <f t="shared" si="14"/>
+        <v>7.2488869628906119E-2</v>
+      </c>
       <c r="D72" s="3">
-        <f t="shared" si="14"/>
-        <v>0.67500000000000093</v>
+        <f t="shared" si="15"/>
+        <v>5.0381268310546776E-2</v>
       </c>
       <c r="E72" s="3">
-        <f t="shared" si="15"/>
-        <v>7.2488869628906119E-2</v>
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B72^2 +  (8)/(32*phi + 8) * B72 ^4</f>
+        <v>0.29634414062499859</v>
       </c>
       <c r="F72" s="3">
         <f t="shared" si="16"/>
-        <v>5.0381268310546776E-2</v>
+        <v>0.50008073730468583</v>
       </c>
       <c r="G72" s="3">
         <f t="shared" si="17"/>
-        <v>0.81082983935546715</v>
+        <v>0.63116698974609531</v>
       </c>
       <c r="H72" s="3">
         <f t="shared" si="18"/>
-        <v>0.50008073730468583</v>
-      </c>
-      <c r="I72" s="3">
+        <v>-0.25965730590820341</v>
+      </c>
+      <c r="J72" s="3">
         <f t="shared" si="19"/>
-        <v>0.63116698974609531</v>
-      </c>
-      <c r="J72" s="3">
-        <f t="shared" si="20"/>
-        <v>-0.25965730590820341</v>
+        <v>0.36883301025390469</v>
       </c>
     </row>
-    <row r="73" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B73" s="3">
+        <f t="shared" si="13"/>
+        <v>0.70000000000000095</v>
+      </c>
+      <c r="C73" s="3">
+        <f t="shared" si="14"/>
+        <v>6.7252499999999785E-2</v>
+      </c>
       <c r="D73" s="3">
-        <f t="shared" si="14"/>
-        <v>0.70000000000000095</v>
+        <f t="shared" si="15"/>
+        <v>4.6856249999999849E-2</v>
       </c>
       <c r="E73" s="3">
-        <f t="shared" si="15"/>
-        <v>6.7252499999999785E-2</v>
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B73^2 +  (8)/(32*phi + 8) * B73 ^4</f>
+        <v>0.26009999999999867</v>
       </c>
       <c r="F73" s="3">
         <f t="shared" si="16"/>
-        <v>4.6856249999999849E-2</v>
+        <v>0.45517499999999833</v>
       </c>
       <c r="G73" s="3">
         <f t="shared" si="17"/>
-        <v>0.76470199999999811</v>
+        <v>0.67264750000000162</v>
       </c>
       <c r="H73" s="3">
         <f t="shared" si="18"/>
-        <v>0.45517499999999833</v>
-      </c>
-      <c r="I73" s="3">
+        <v>-0.26551875000000019</v>
+      </c>
+      <c r="J73" s="3">
         <f t="shared" si="19"/>
-        <v>0.67264750000000162</v>
-      </c>
-      <c r="J73" s="3">
-        <f t="shared" si="20"/>
-        <v>-0.26551875000000019</v>
+        <v>0.32735249999999844</v>
       </c>
     </row>
-    <row r="74" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B74" s="3">
+        <f t="shared" si="13"/>
+        <v>0.72500000000000098</v>
+      </c>
+      <c r="C74" s="3">
+        <f t="shared" si="14"/>
+        <v>6.136466552734357E-2</v>
+      </c>
       <c r="D74" s="3">
-        <f t="shared" si="14"/>
-        <v>0.72500000000000098</v>
+        <f t="shared" si="15"/>
+        <v>4.2855889892577992E-2</v>
       </c>
       <c r="E74" s="3">
-        <f t="shared" si="15"/>
-        <v>6.136466552734357E-2</v>
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B74^2 +  (8)/(32*phi + 8) * B74 ^4</f>
+        <v>0.22503164062499864</v>
       </c>
       <c r="F74" s="3">
         <f t="shared" si="16"/>
-        <v>4.2855889892577992E-2</v>
+        <v>0.40786984863281073</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" si="17"/>
-        <v>0.70955892529296638</v>
+        <v>0.71360369384765776</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" si="18"/>
-        <v>0.40786984863281073</v>
-      </c>
-      <c r="I74" s="3">
+        <v>-0.26882330932617188</v>
+      </c>
+      <c r="J74" s="3">
         <f t="shared" si="19"/>
-        <v>0.71360369384765776</v>
-      </c>
-      <c r="J74" s="3">
-        <f t="shared" si="20"/>
-        <v>-0.26882330932617188</v>
+        <v>0.28639630615234224</v>
       </c>
     </row>
-    <row r="75" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B75" s="3">
+        <f t="shared" si="13"/>
+        <v>0.750000000000001</v>
+      </c>
+      <c r="C75" s="3">
+        <f t="shared" si="14"/>
+        <v>5.4931640624999778E-2</v>
+      </c>
       <c r="D75" s="3">
-        <f t="shared" si="14"/>
-        <v>0.750000000000001</v>
+        <f t="shared" si="15"/>
+        <v>3.8452148437499861E-2</v>
       </c>
       <c r="E75" s="3">
-        <f t="shared" si="15"/>
-        <v>5.4931640624999778E-2</v>
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B75^2 +  (8)/(32*phi + 8) * B75 ^4</f>
+        <v>0.19140624999999867</v>
       </c>
       <c r="F75" s="3">
         <f t="shared" si="16"/>
-        <v>3.8452148437499861E-2</v>
+        <v>0.35888671874999811</v>
       </c>
       <c r="G75" s="3">
         <f t="shared" si="17"/>
-        <v>0.644042968749997</v>
+        <v>0.75366210937500144</v>
       </c>
       <c r="H75" s="3">
         <f t="shared" si="18"/>
-        <v>0.35888671874999811</v>
-      </c>
-      <c r="I75" s="3">
+        <v>-0.26916503906249989</v>
+      </c>
+      <c r="J75" s="3">
         <f t="shared" si="19"/>
-        <v>0.75366210937500144</v>
-      </c>
-      <c r="J75" s="3">
-        <f t="shared" si="20"/>
-        <v>-0.26916503906249989</v>
+        <v>0.24633789062499845</v>
       </c>
     </row>
-    <row r="76" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B76" s="3">
+        <f t="shared" si="13"/>
+        <v>0.77500000000000102</v>
+      </c>
+      <c r="C76" s="3">
+        <f t="shared" si="14"/>
+        <v>4.8080500488280942E-2</v>
+      </c>
       <c r="D76" s="3">
-        <f t="shared" si="14"/>
-        <v>0.77500000000000102</v>
+        <f t="shared" si="15"/>
+        <v>3.3732366943359154E-2</v>
       </c>
       <c r="E76" s="3">
-        <f t="shared" si="15"/>
-        <v>4.8080500488280942E-2</v>
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B76^2 +  (8)/(32*phi + 8) * B76 ^4</f>
+        <v>0.15950039062499871</v>
       </c>
       <c r="F76" s="3">
         <f t="shared" si="16"/>
-        <v>3.3732366943359154E-2</v>
+        <v>0.30903200683593535</v>
       </c>
       <c r="G76" s="3">
         <f t="shared" si="17"/>
-        <v>0.56664859326171513</v>
+        <v>0.7924191088867204</v>
       </c>
       <c r="H76" s="3">
         <f t="shared" si="18"/>
-        <v>0.30903200683593535</v>
-      </c>
-      <c r="I76" s="3">
+        <v>-0.26611089477539035</v>
+      </c>
+      <c r="J76" s="3">
         <f t="shared" si="19"/>
-        <v>0.7924191088867204</v>
-      </c>
-      <c r="J76" s="3">
-        <f t="shared" si="20"/>
-        <v>-0.26611089477539035</v>
+        <v>0.20758089111327965</v>
       </c>
     </row>
-    <row r="77" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B77" s="3">
+        <f t="shared" si="13"/>
+        <v>0.80000000000000104</v>
+      </c>
+      <c r="C77" s="3">
+        <f t="shared" si="14"/>
+        <v>4.0959999999999636E-2</v>
+      </c>
       <c r="D77" s="3">
-        <f t="shared" si="14"/>
-        <v>0.80000000000000104</v>
+        <f t="shared" si="15"/>
+        <v>2.8799999999999742E-2</v>
       </c>
       <c r="E77" s="3">
-        <f t="shared" si="15"/>
-        <v>4.0959999999999636E-2</v>
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B77^2 +  (8)/(32*phi + 8) * B77 ^4</f>
+        <v>0.12959999999999877</v>
       </c>
       <c r="F77" s="3">
         <f t="shared" si="16"/>
-        <v>2.8799999999999742E-2</v>
+        <v>0.25919999999999777</v>
       </c>
       <c r="G77" s="3">
         <f t="shared" si="17"/>
-        <v>0.47571199999999592</v>
+        <v>0.82944000000000173</v>
       </c>
       <c r="H77" s="3">
         <f t="shared" si="18"/>
-        <v>0.25919999999999777</v>
-      </c>
-      <c r="I77" s="3">
+        <v>-0.25919999999999965</v>
+      </c>
+      <c r="J77" s="3">
         <f t="shared" si="19"/>
-        <v>0.82944000000000173</v>
-      </c>
-      <c r="J77" s="3">
-        <f t="shared" si="20"/>
-        <v>-0.25919999999999965</v>
+        <v>0.17055999999999841</v>
       </c>
     </row>
-    <row r="78" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B78" s="3">
+        <f t="shared" si="13"/>
+        <v>0.82500000000000107</v>
+      </c>
+      <c r="C78" s="3">
+        <f t="shared" si="14"/>
+        <v>3.3741452636718516E-2</v>
+      </c>
       <c r="D78" s="3">
-        <f t="shared" si="14"/>
-        <v>0.82500000000000107</v>
+        <f t="shared" si="15"/>
+        <v>2.3775347900390459E-2</v>
       </c>
       <c r="E78" s="3">
-        <f t="shared" si="15"/>
-        <v>3.3741452636718516E-2</v>
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B78^2 +  (8)/(32*phi + 8) * B78 ^4</f>
+        <v>0.10200039062499883</v>
       </c>
       <c r="F78" s="3">
         <f t="shared" si="16"/>
-        <v>2.3775347900390459E-2</v>
+        <v>0.21037580566406067</v>
       </c>
       <c r="G78" s="3">
         <f t="shared" si="17"/>
-        <v>0.36940040576171373</v>
+        <v>0.86425815673828255</v>
       </c>
       <c r="H78" s="3">
         <f t="shared" si="18"/>
-        <v>0.21037580566406067</v>
-      </c>
-      <c r="I78" s="3">
+        <v>-0.24794291381835878</v>
+      </c>
+      <c r="J78" s="3">
         <f t="shared" si="19"/>
-        <v>0.86425815673828255</v>
-      </c>
-      <c r="J78" s="3">
-        <f t="shared" si="20"/>
-        <v>-0.24794291381835878</v>
+        <v>0.13574184326171734</v>
       </c>
     </row>
-    <row r="79" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B79" s="3">
+        <f t="shared" ref="B79:B85" si="20">B78+0.025</f>
+        <v>0.85000000000000109</v>
+      </c>
+      <c r="C79" s="3">
+        <f t="shared" si="14"/>
+        <v>2.6619609374999631E-2</v>
+      </c>
       <c r="D79" s="3">
-        <f t="shared" ref="D79:D85" si="21">D78+0.025</f>
-        <v>0.85000000000000109</v>
+        <f t="shared" si="15"/>
+        <v>1.8796289062499749E-2</v>
       </c>
       <c r="E79" s="3">
-        <f t="shared" si="15"/>
-        <v>2.6619609374999631E-2</v>
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B79^2 +  (8)/(32*phi + 8) * B79 ^4</f>
+        <v>7.7006249999998944E-2</v>
       </c>
       <c r="F79" s="3">
         <f t="shared" si="16"/>
-        <v>1.8796289062499749E-2</v>
+        <v>0.16363828124999769</v>
       </c>
       <c r="G79" s="3">
         <f t="shared" si="17"/>
-        <v>0.24570096874999436</v>
+        <v>0.89637414062500143</v>
       </c>
       <c r="H79" s="3">
         <f t="shared" si="18"/>
-        <v>0.16363828124999769</v>
-      </c>
-      <c r="I79" s="3">
+        <v>-0.23182089843749931</v>
+      </c>
+      <c r="J79" s="3">
         <f t="shared" si="19"/>
-        <v>0.89637414062500143</v>
-      </c>
-      <c r="J79" s="3">
+        <v>0.10362585937499857</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B80" s="3">
         <f t="shared" si="20"/>
-        <v>-0.23182089843749931</v>
-      </c>
-    </row>
-    <row r="80" spans="4:10" x14ac:dyDescent="0.2">
+        <v>0.87500000000000111</v>
+      </c>
+      <c r="C80" s="3">
+        <f t="shared" si="14"/>
+        <v>1.9813537597655972E-2</v>
+      </c>
       <c r="D80" s="3">
-        <f t="shared" si="21"/>
-        <v>0.87500000000000111</v>
+        <f t="shared" si="15"/>
+        <v>1.4019012451171653E-2</v>
       </c>
       <c r="E80" s="3">
-        <f t="shared" si="15"/>
-        <v>1.9813537597655972E-2</v>
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B80^2 +  (8)/(32*phi + 8) * B80 ^4</f>
+        <v>5.4931640624999112E-2</v>
       </c>
       <c r="F80" s="3">
         <f t="shared" si="16"/>
-        <v>1.4019012451171653E-2</v>
+        <v>0.12016296386718572</v>
       </c>
       <c r="G80" s="3">
         <f t="shared" si="17"/>
-        <v>0.10240936279296164</v>
+        <v>0.92525482177734508</v>
       </c>
       <c r="H80" s="3">
         <f t="shared" si="18"/>
-        <v>0.12016296386718572</v>
-      </c>
-      <c r="I80" s="3">
+        <v>-0.2102851867675769</v>
+      </c>
+      <c r="J80" s="3">
         <f t="shared" si="19"/>
-        <v>0.92525482177734508</v>
-      </c>
-      <c r="J80" s="3">
+        <v>7.4745178222655084E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B81" s="3">
         <f t="shared" si="20"/>
-        <v>-0.2102851867675769</v>
-      </c>
-    </row>
-    <row r="81" spans="4:10" x14ac:dyDescent="0.2">
+        <v>0.90000000000000113</v>
+      </c>
+      <c r="C81" s="3">
+        <f t="shared" si="14"/>
+        <v>1.3567499999999733E-2</v>
+      </c>
       <c r="D81" s="3">
-        <f t="shared" si="21"/>
-        <v>0.90000000000000113</v>
+        <f t="shared" si="15"/>
+        <v>9.6187499999997872E-3</v>
       </c>
       <c r="E81" s="3">
-        <f t="shared" si="15"/>
-        <v>1.3567499999999733E-2</v>
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B81^2 +  (8)/(32*phi + 8) * B81 ^4</f>
+        <v>3.6099999999999244E-2</v>
       </c>
       <c r="F81" s="3">
         <f t="shared" si="16"/>
-        <v>9.6187499999997872E-3</v>
+        <v>8.1224999999998104E-2</v>
       </c>
       <c r="G81" s="3">
         <f t="shared" si="17"/>
-        <v>-6.2882000000008098E-2</v>
+        <v>0.95033250000000091</v>
       </c>
       <c r="H81" s="3">
         <f t="shared" si="18"/>
-        <v>8.1224999999998104E-2</v>
-      </c>
-      <c r="I81" s="3">
+        <v>-0.18275624999999862</v>
+      </c>
+      <c r="J81" s="3">
         <f t="shared" si="19"/>
-        <v>0.95033250000000091</v>
-      </c>
-      <c r="J81" s="3">
+        <v>4.9667499999998976E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B82" s="3">
         <f t="shared" si="20"/>
-        <v>-0.18275624999999862</v>
-      </c>
-    </row>
-    <row r="82" spans="4:10" x14ac:dyDescent="0.2">
+        <v>0.92500000000000115</v>
+      </c>
+      <c r="C82" s="3">
+        <f t="shared" si="14"/>
+        <v>8.1518334960935523E-3</v>
+      </c>
       <c r="D82" s="3">
-        <f t="shared" si="21"/>
-        <v>0.92500000000000115</v>
+        <f t="shared" si="15"/>
+        <v>5.7905090332029951E-3</v>
       </c>
       <c r="E82" s="3">
-        <f t="shared" si="15"/>
-        <v>8.1518334960935523E-3</v>
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B82^2 +  (8)/(32*phi + 8) * B82 ^4</f>
+        <v>2.0844140624999397E-2</v>
       </c>
       <c r="F82" s="3">
         <f t="shared" si="16"/>
-        <v>5.7905090332029951E-3</v>
+        <v>4.8202075195311167E-2</v>
       </c>
       <c r="G82" s="3">
         <f t="shared" si="17"/>
-        <v>-0.25279609814454096</v>
+        <v>0.97100402587890722</v>
       </c>
       <c r="H82" s="3">
         <f t="shared" si="18"/>
-        <v>4.8202075195311167E-2</v>
-      </c>
-      <c r="I82" s="3">
+        <v>-0.14862306518554502</v>
+      </c>
+      <c r="J82" s="3">
         <f t="shared" si="19"/>
-        <v>0.97100402587890722</v>
-      </c>
-      <c r="J82" s="3">
+        <v>2.8995974121092949E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B83" s="3">
         <f t="shared" si="20"/>
-        <v>-0.14862306518554502</v>
-      </c>
-    </row>
-    <row r="83" spans="4:10" x14ac:dyDescent="0.2">
+        <v>0.95000000000000118</v>
+      </c>
+      <c r="C83" s="3">
+        <f t="shared" si="14"/>
+        <v>3.8638281249999684E-3</v>
+      </c>
       <c r="D83" s="3">
-        <f t="shared" si="21"/>
-        <v>0.95000000000000118</v>
+        <f t="shared" si="15"/>
+        <v>2.7498046874998572E-3</v>
       </c>
       <c r="E83" s="3">
-        <f t="shared" si="15"/>
-        <v>3.8638281249999684E-3</v>
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B83^2 +  (8)/(32*phi + 8) * B83 ^4</f>
+        <v>9.5062499999996053E-3</v>
       </c>
       <c r="F83" s="3">
         <f t="shared" si="16"/>
-        <v>2.7498046874998572E-3</v>
+        <v>2.2577343749999645E-2</v>
       </c>
       <c r="G83" s="3">
         <f t="shared" si="17"/>
-        <v>-0.4701837812500107</v>
+        <v>0.98662992187500054</v>
       </c>
       <c r="H83" s="3">
         <f t="shared" si="18"/>
-        <v>2.2577343749999645E-2</v>
-      </c>
-      <c r="I83" s="3">
+        <v>-0.10724238281249776</v>
+      </c>
+      <c r="J83" s="3">
         <f t="shared" si="19"/>
-        <v>0.98662992187500054</v>
-      </c>
-      <c r="J83" s="3">
+        <v>1.3370078124999574E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B84" s="3">
         <f t="shared" si="20"/>
-        <v>-0.10724238281249776</v>
-      </c>
-    </row>
-    <row r="84" spans="4:10" x14ac:dyDescent="0.2">
+        <v>0.9750000000000012</v>
+      </c>
+      <c r="C84" s="3">
+        <f t="shared" si="14"/>
+        <v>1.0286059570311368E-3</v>
+      </c>
       <c r="D84" s="3">
-        <f t="shared" si="21"/>
-        <v>0.9750000000000012</v>
+        <f t="shared" si="15"/>
+        <v>7.3339233398439507E-4</v>
       </c>
       <c r="E84" s="3">
-        <f t="shared" si="15"/>
-        <v>1.0286059570311368E-3</v>
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B84^2 +  (8)/(32*phi + 8) * B84 ^4</f>
+        <v>2.4378906249997723E-3</v>
       </c>
       <c r="F84" s="3">
         <f t="shared" si="16"/>
-        <v>7.3339233398439507E-4</v>
+        <v>5.9423583984372641E-3</v>
       </c>
       <c r="G84" s="3">
         <f t="shared" si="17"/>
-        <v>-0.71813660205079421</v>
+        <v>0.9965335034179692</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" si="18"/>
-        <v>5.9423583984372641E-3</v>
-      </c>
-      <c r="I84" s="3">
+        <v>-5.7937994384762992E-2</v>
+      </c>
+      <c r="J84" s="3">
         <f t="shared" si="19"/>
-        <v>0.9965335034179692</v>
-      </c>
-      <c r="J84" s="3">
+        <v>3.466496582030909E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B85" s="3">
         <f t="shared" si="20"/>
-        <v>-5.7937994384762992E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="4:10" x14ac:dyDescent="0.2">
+        <v>1.0000000000000011</v>
+      </c>
+      <c r="C85" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="D85" s="3">
-        <f t="shared" si="21"/>
-        <v>1.0000000000000011</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="E85" s="3">
-        <f t="shared" si="15"/>
+        <f>1 + (- 32*phi  - 16 )/(32*phi + 8) * B85^2 +  (8)/(32*phi + 8) * B85 ^4</f>
         <v>0</v>
       </c>
       <c r="F85" s="3">
@@ -6934,19 +8672,15 @@
       </c>
       <c r="G85" s="3">
         <f t="shared" si="17"/>
-        <v>-1.0000000000000133</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="H85" s="3">
         <f t="shared" si="18"/>
+        <v>2.6645352591003757E-15</v>
+      </c>
+      <c r="J85" s="3">
+        <f t="shared" si="19"/>
         <v>0</v>
-      </c>
-      <c r="I85" s="3">
-        <f t="shared" si="19"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="J85" s="3">
-        <f t="shared" si="20"/>
-        <v>2.6645352591003757E-15</v>
       </c>
     </row>
   </sheetData>

--- a/Deltares/Compute_Hermitic_polynomials/5th_order_timoshenko_polys.xlsx
+++ b/Deltares/Compute_Hermitic_polynomials/5th_order_timoshenko_polys.xlsx
@@ -12,11 +12,11 @@
     <workbookView xWindow="3720" yWindow="0" windowWidth="15240" windowHeight="8625"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="N 5th order" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="L">Hoja1!$J$2</definedName>
-    <definedName name="phi">Hoja1!$J$1</definedName>
+    <definedName name="L">'N 5th order'!$J$2</definedName>
+    <definedName name="phi">'N 5th order'!$J$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -109,7 +109,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -222,7 +221,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$B$5:$B$85</c:f>
+              <c:f>'N 5th order'!$B$5:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -474,7 +473,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$C$5:$C$85</c:f>
+              <c:f>'N 5th order'!$C$5:$C$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -752,7 +751,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$B$5:$B$85</c:f>
+              <c:f>'N 5th order'!$B$5:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -1004,7 +1003,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$D$5:$D$85</c:f>
+              <c:f>'N 5th order'!$D$5:$D$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -1281,7 +1280,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$B$5:$B$85</c:f>
+              <c:f>'N 5th order'!$B$5:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -1533,7 +1532,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$E$5:$E$85</c:f>
+              <c:f>'N 5th order'!$E$5:$E$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -1811,7 +1810,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$B$5:$B$85</c:f>
+              <c:f>'N 5th order'!$B$5:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -2063,7 +2062,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$F$5:$F$85</c:f>
+              <c:f>'N 5th order'!$F$5:$F$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -2340,7 +2339,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$B$5:$B$85</c:f>
+              <c:f>'N 5th order'!$B$5:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -2592,7 +2591,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$G$5:$G$85</c:f>
+              <c:f>'N 5th order'!$G$5:$G$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -2870,7 +2869,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$B$5:$B$85</c:f>
+              <c:f>'N 5th order'!$B$5:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -3122,7 +3121,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$H$5:$H$85</c:f>
+              <c:f>'N 5th order'!$H$5:$H$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -3661,7 +3660,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$B$5:$B$85</c:f>
+              <c:f>'N 5th order'!$B$5:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -3913,7 +3912,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$J$5:$J$85</c:f>
+              <c:f>'N 5th order'!$J$5:$J$85</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="81"/>
@@ -5493,16 +5492,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5790,7 +5789,7 @@
   <dimension ref="B1:T85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:T8"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
